--- a/computed_files/1_4_methane/mie_results_vle_visc_fluid.xlsx
+++ b/computed_files/1_4_methane/mie_results_vle_visc_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.9602028495713105</v>
       </c>
       <c r="D2">
-        <v>199.8378977888708</v>
+        <v>199.8378977888709</v>
       </c>
       <c r="E2">
-        <v>5553715.997996231</v>
+        <v>5553715.997996245</v>
       </c>
       <c r="F2">
-        <v>9776.108744719428</v>
+        <v>9776.108744719431</v>
       </c>
       <c r="G2">
         <v>3.815393539930321</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>55.92432297073083</v>
       </c>
@@ -585,10 +597,16 @@
         <v>0.1687988865955767</v>
       </c>
       <c r="M2">
+        <v>0.1687977878736189</v>
+      </c>
+      <c r="N2">
         <v>1861.94191664697</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>1.098721957847978E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>57.37797525799509</v>
       </c>
@@ -626,18 +644,24 @@
         <v>0.1679970105101103</v>
       </c>
       <c r="M3">
+        <v>0.1679958902110234</v>
+      </c>
+      <c r="N3">
         <v>1773.344417455914</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>1.120299086952499E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>58.83162754525935</v>
+        <v>58.83162754525936</v>
       </c>
       <c r="B4">
-        <v>15.09139271523817</v>
+        <v>15.09139271523818</v>
       </c>
       <c r="C4">
-        <v>0.03085284728072989</v>
+        <v>0.03085284728072991</v>
       </c>
       <c r="D4">
         <v>30773.87165912985</v>
@@ -646,10 +670,10 @@
         <v>10779.28934194267</v>
       </c>
       <c r="F4">
-        <v>10290.14882768858</v>
+        <v>10290.14882768857</v>
       </c>
       <c r="G4">
-        <v>64.91363166653035</v>
+        <v>64.91363166653032</v>
       </c>
       <c r="H4">
         <v>146.515803943943</v>
@@ -667,10 +691,16 @@
         <v>0.1673507081571705</v>
       </c>
       <c r="M4">
+        <v>0.1673495646473253</v>
+      </c>
+      <c r="N4">
         <v>1710.966833605524</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>1.143509845150028E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>60.28527983252362</v>
       </c>
@@ -678,7 +708,7 @@
         <v>25.54370476580488</v>
       </c>
       <c r="C5">
-        <v>0.05096309425630609</v>
+        <v>0.05096309425630608</v>
       </c>
       <c r="D5">
         <v>30425.03866073933</v>
@@ -708,18 +738,24 @@
         <v>0.1668485572564026</v>
       </c>
       <c r="M5">
+        <v>0.1668473887502991</v>
+      </c>
+      <c r="N5">
         <v>1665.025926154819</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>1.16850610349925E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>61.73893211978788</v>
+        <v>61.73893211978789</v>
       </c>
       <c r="B6">
-        <v>41.7796574536653</v>
+        <v>41.77965745366544</v>
       </c>
       <c r="C6">
-        <v>0.08139508476108026</v>
+        <v>0.08139508476108052</v>
       </c>
       <c r="D6">
         <v>30098.76316946492</v>
@@ -728,7 +764,7 @@
         <v>10376.17378690354</v>
       </c>
       <c r="F6">
-        <v>9862.88057524028</v>
+        <v>9862.880575240279</v>
       </c>
       <c r="G6">
         <v>64.07851436546514</v>
@@ -749,59 +785,71 @@
         <v>0.1664823986819854</v>
       </c>
       <c r="M6">
+        <v>0.1664812032310824</v>
+      </c>
+      <c r="N6">
         <v>1630.037840507094</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>1.195450902972483E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>63.19258440705214</v>
+        <v>63.19258440705215</v>
       </c>
       <c r="B7">
-        <v>66.24160095961743</v>
+        <v>66.2416009596175</v>
       </c>
       <c r="C7">
-        <v>0.1260869348687405</v>
+        <v>0.1260869348687406</v>
       </c>
       <c r="D7">
-        <v>29792.81884184356</v>
+        <v>29792.81884184355</v>
       </c>
       <c r="E7">
-        <v>10192.90118546968</v>
+        <v>10192.90118546969</v>
       </c>
       <c r="F7">
         <v>9667.538897250672</v>
       </c>
       <c r="G7">
-        <v>61.75446383059239</v>
+        <v>61.75446383059237</v>
       </c>
       <c r="H7">
         <v>121.7160169234777</v>
       </c>
       <c r="I7">
-        <v>1.45571783466952E-09</v>
+        <v>1.455717834669522E-09</v>
       </c>
       <c r="J7">
-        <v>1.023701892153535E-09</v>
+        <v>1.023701892153536E-09</v>
       </c>
       <c r="K7">
-        <v>0.0006683315174233806</v>
+        <v>0.0006683315174233799</v>
       </c>
       <c r="L7">
-        <v>0.166246499272465</v>
+        <v>0.1662464992724649</v>
       </c>
       <c r="M7">
-        <v>1602.668086816922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.1662452747534045</v>
+      </c>
+      <c r="N7">
+        <v>1602.668086816921</v>
+      </c>
+      <c r="O7">
+        <v>1.224519060394372E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>64.64623669431641</v>
       </c>
       <c r="B8">
-        <v>102.0964624595758</v>
+        <v>102.0964624595763</v>
       </c>
       <c r="C8">
-        <v>0.1899724303670224</v>
+        <v>0.1899724303670234</v>
       </c>
       <c r="D8">
         <v>29505.21789670763</v>
@@ -810,19 +858,19 @@
         <v>10022.19798547577</v>
       </c>
       <c r="F8">
-        <v>9484.773660778632</v>
+        <v>9484.773660778628</v>
       </c>
       <c r="G8">
-        <v>58.68906363324083</v>
+        <v>58.689063633241</v>
       </c>
       <c r="H8">
-        <v>113.0776105150383</v>
+        <v>113.0776105150384</v>
       </c>
       <c r="I8">
-        <v>1.479006749249186E-09</v>
+        <v>1.479006749249185E-09</v>
       </c>
       <c r="J8">
-        <v>1.06016866907652E-09</v>
+        <v>1.060168669076521E-09</v>
       </c>
       <c r="K8">
         <v>0.0006567218388581531</v>
@@ -831,33 +879,39 @@
         <v>0.1661366843918123</v>
       </c>
       <c r="M8">
+        <v>0.1661354284941586</v>
+      </c>
+      <c r="N8">
         <v>1580.75819574906</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>1.255897653689231E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>66.09988898158068</v>
+        <v>66.09988898158069</v>
       </c>
       <c r="B9">
-        <v>153.3599075701351</v>
+        <v>153.3599075701339</v>
       </c>
       <c r="C9">
-        <v>0.2790988103054838</v>
+        <v>0.2790988103054817</v>
       </c>
       <c r="D9">
         <v>29234.18229980637</v>
       </c>
       <c r="E9">
-        <v>9863.904551162977</v>
+        <v>9863.904551162976</v>
       </c>
       <c r="F9">
-        <v>9314.427313065622</v>
+        <v>9314.42731306562</v>
       </c>
       <c r="G9">
-        <v>55.1734247147584</v>
+        <v>55.17342471475836</v>
       </c>
       <c r="H9">
-        <v>104.6389143800004</v>
+        <v>104.6389143800003</v>
       </c>
       <c r="I9">
         <v>1.502222968666736E-09</v>
@@ -866,27 +920,33 @@
         <v>1.098870088100506E-09</v>
       </c>
       <c r="K9">
-        <v>0.0006406967221692591</v>
+        <v>0.0006406967221692593</v>
       </c>
       <c r="L9">
         <v>0.1661494379691917</v>
       </c>
       <c r="M9">
+        <v>0.1661481481828387</v>
+      </c>
+      <c r="N9">
         <v>1562.838720048947</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>1.289786353053703E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>67.55354126884494</v>
+        <v>67.55354126884495</v>
       </c>
       <c r="B10">
-        <v>225.0241166594085</v>
+        <v>225.0241166594083</v>
       </c>
       <c r="C10">
-        <v>0.4007365413787254</v>
+        <v>0.4007365413787248</v>
       </c>
       <c r="D10">
-        <v>28978.11882372759</v>
+        <v>28978.1188237276</v>
       </c>
       <c r="E10">
         <v>9717.616481776306</v>
@@ -895,10 +955,10 @@
         <v>9156.097923698322</v>
       </c>
       <c r="G10">
-        <v>51.42965727310286</v>
+        <v>51.42965727310284</v>
       </c>
       <c r="H10">
-        <v>96.54062156732085</v>
+        <v>96.54062156732087</v>
       </c>
       <c r="I10">
         <v>1.525502042373714E-09</v>
@@ -907,229 +967,265 @@
         <v>1.140047691136237E-09</v>
       </c>
       <c r="K10">
-        <v>0.0006204243182149019</v>
+        <v>0.0006204243182149027</v>
       </c>
       <c r="L10">
-        <v>0.1662810009689453</v>
+        <v>0.1662810009689454</v>
       </c>
       <c r="M10">
+        <v>0.1662796745713862</v>
+      </c>
+      <c r="N10">
         <v>1547.8664489375</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>1.326397559174019E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>69.0071935561092</v>
+        <v>69.00719355610921</v>
       </c>
       <c r="B11">
-        <v>323.1873015784203</v>
+        <v>323.1873015784257</v>
       </c>
       <c r="C11">
-        <v>0.5634793062756398</v>
+        <v>0.5634793062756491</v>
       </c>
       <c r="D11">
         <v>28735.59739503239</v>
       </c>
       <c r="E11">
-        <v>9582.758282537672</v>
+        <v>9582.758282537661</v>
       </c>
       <c r="F11">
-        <v>9009.212882317257</v>
+        <v>9009.212882317248</v>
       </c>
       <c r="G11">
-        <v>47.62324580634969</v>
+        <v>47.62324580634962</v>
       </c>
       <c r="H11">
-        <v>88.87788362067386</v>
+        <v>88.87788362067373</v>
       </c>
       <c r="I11">
-        <v>1.548972806134545E-09</v>
+        <v>1.548972806134546E-09</v>
       </c>
       <c r="J11">
-        <v>1.183957240056667E-09</v>
+        <v>1.183957240056668E-09</v>
       </c>
       <c r="K11">
-        <v>0.000596249318155385</v>
+        <v>0.0005962493181553848</v>
       </c>
       <c r="L11">
         <v>0.166526529630626</v>
       </c>
       <c r="M11">
+        <v>0.1665251636743217</v>
+      </c>
+      <c r="N11">
         <v>1535.074094808036</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>1.365956304302638E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>70.46084584337346</v>
+        <v>70.46084584337348</v>
       </c>
       <c r="B12">
-        <v>455.1831336498092</v>
+        <v>455.1831336498136</v>
       </c>
       <c r="C12">
-        <v>0.7773328756980712</v>
+        <v>0.7773328756980785</v>
       </c>
       <c r="D12">
         <v>28505.33223883016</v>
       </c>
       <c r="E12">
-        <v>9458.642491947154</v>
+        <v>9458.642491947156</v>
       </c>
       <c r="F12">
-        <v>8873.088046454266</v>
+        <v>8873.088046454262</v>
       </c>
       <c r="G12">
-        <v>43.87407463470044</v>
+        <v>43.87407463470043</v>
       </c>
       <c r="H12">
-        <v>81.70975083066726</v>
+        <v>81.70975083066722</v>
       </c>
       <c r="I12">
-        <v>1.572757353497732E-09</v>
+        <v>1.572757353497734E-09</v>
       </c>
       <c r="J12">
-        <v>1.230868672797207E-09</v>
+        <v>1.230868672797209E-09</v>
       </c>
       <c r="K12">
-        <v>0.00056870804810239</v>
+        <v>0.0005687080481023896</v>
       </c>
       <c r="L12">
         <v>0.1668793941957886</v>
       </c>
       <c r="M12">
+        <v>0.1668779854959201</v>
+      </c>
+      <c r="N12">
         <v>1523.880349515347</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>1.408699868556583E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>71.91449813063772</v>
       </c>
       <c r="B13">
-        <v>629.7083158233067</v>
+        <v>629.7083158233062</v>
       </c>
       <c r="C13">
-        <v>1.053791931108568</v>
+        <v>1.053791931108567</v>
       </c>
       <c r="D13">
         <v>28286.16542240329</v>
       </c>
       <c r="E13">
-        <v>9344.516012828073</v>
+        <v>9344.51601282807</v>
       </c>
       <c r="F13">
-        <v>8746.974090443919</v>
+        <v>8746.97409044392</v>
       </c>
       <c r="G13">
-        <v>40.26592558026542</v>
+        <v>40.26592558026546</v>
       </c>
       <c r="H13">
-        <v>75.06731971911452</v>
+        <v>75.06731971911461</v>
       </c>
       <c r="I13">
-        <v>1.596971246745236E-09</v>
+        <v>1.596971246745233E-09</v>
       </c>
       <c r="J13">
-        <v>1.281065761367821E-09</v>
+        <v>1.281065761367819E-09</v>
       </c>
       <c r="K13">
-        <v>0.0005385203631748773</v>
+        <v>0.0005385203631748776</v>
       </c>
       <c r="L13">
-        <v>0.1673307002723718</v>
+        <v>0.1673307002723719</v>
       </c>
       <c r="M13">
-        <v>1513.834187767008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.1673292453953116</v>
+      </c>
+      <c r="N13">
+        <v>1513.834187767009</v>
+      </c>
+      <c r="O13">
+        <v>1.454877060300186E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>73.36815041790199</v>
+        <v>73.368150417902</v>
       </c>
       <c r="B14">
-        <v>856.9465778176643</v>
+        <v>856.9465778176644</v>
       </c>
       <c r="C14">
         <v>1.405904205756098</v>
       </c>
       <c r="D14">
-        <v>28077.05245676601</v>
+        <v>28077.052456766</v>
       </c>
       <c r="E14">
-        <v>9239.595569946567</v>
+        <v>9239.595569946569</v>
       </c>
       <c r="F14">
-        <v>8630.091974734883</v>
+        <v>8630.091974734882</v>
       </c>
       <c r="G14">
-        <v>36.85445405125218</v>
+        <v>36.8544540512522</v>
       </c>
       <c r="H14">
-        <v>68.96055817108575</v>
+        <v>68.96055817108572</v>
       </c>
       <c r="I14">
-        <v>1.621723915442053E-09</v>
+        <v>1.621723915442055E-09</v>
       </c>
       <c r="J14">
-        <v>1.334845413027798E-09</v>
+        <v>1.3348454130278E-09</v>
       </c>
       <c r="K14">
-        <v>0.0005065512193967402</v>
+        <v>0.0005065512193967396</v>
       </c>
       <c r="L14">
         <v>0.1678690949940636</v>
       </c>
       <c r="M14">
-        <v>1504.579485114797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.1678675902469529</v>
+      </c>
+      <c r="N14">
+        <v>1504.579485114796</v>
+      </c>
+      <c r="O14">
+        <v>1.504747110694316E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>74.82180270516625</v>
+        <v>74.82180270516626</v>
       </c>
       <c r="B15">
-        <v>1148.687448013395</v>
+        <v>1148.687448013396</v>
       </c>
       <c r="C15">
-        <v>1.848321602956348</v>
+        <v>1.848321602956349</v>
       </c>
       <c r="D15">
         <v>27877.04967450905</v>
       </c>
       <c r="E15">
-        <v>9143.094169322831</v>
+        <v>9143.09416932284</v>
       </c>
       <c r="F15">
-        <v>8521.659411844936</v>
+        <v>8521.659411844945</v>
       </c>
       <c r="G15">
-        <v>33.67375466435173</v>
+        <v>33.67375466435161</v>
       </c>
       <c r="H15">
-        <v>63.38388914371694</v>
+        <v>63.38388914371679</v>
       </c>
       <c r="I15">
-        <v>1.647119194549964E-09</v>
+        <v>1.647119194549962E-09</v>
       </c>
       <c r="J15">
         <v>1.392516556369685E-09</v>
       </c>
       <c r="K15">
-        <v>0.0004737427201828542</v>
+        <v>0.0004737427201828545</v>
       </c>
       <c r="L15">
-        <v>0.1684808822780431</v>
+        <v>0.1684808822780433</v>
       </c>
       <c r="M15">
-        <v>1495.832099511141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.168479323699908</v>
+      </c>
+      <c r="N15">
+        <v>1495.832099511142</v>
+      </c>
+      <c r="O15">
+        <v>1.558578135210963E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>76.27545499243053</v>
       </c>
       <c r="B16">
-        <v>1518.438244033537</v>
+        <v>1518.438244033539</v>
       </c>
       <c r="C16">
-        <v>2.39733820601562</v>
+        <v>2.397338206015622</v>
       </c>
       <c r="D16">
         <v>27685.30314397006</v>
@@ -1159,33 +1255,39 @@
         <v>0.1691504244488825</v>
       </c>
       <c r="M16">
+        <v>0.1691488078037597</v>
+      </c>
+      <c r="N16">
         <v>1487.364757413134</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>1.61664512275808E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>77.72910727969477</v>
+        <v>77.72910727969479</v>
       </c>
       <c r="B17">
-        <v>1981.527841973408</v>
+        <v>1981.527841973462</v>
       </c>
       <c r="C17">
-        <v>3.070915342558235</v>
+        <v>3.070915342558317</v>
       </c>
       <c r="D17">
         <v>27501.03891593365</v>
       </c>
       <c r="E17">
-        <v>8972.291179963597</v>
+        <v>8972.291179963604</v>
       </c>
       <c r="F17">
-        <v>8327.106812161886</v>
+        <v>8327.106812161896</v>
       </c>
       <c r="G17">
-        <v>28.06407784664251</v>
+        <v>28.06407784664245</v>
       </c>
       <c r="H17">
-        <v>53.74671834614957</v>
+        <v>53.74671834614953</v>
       </c>
       <c r="I17">
         <v>1.70022884323742E-09</v>
@@ -1194,147 +1296,171 @@
         <v>1.520819136423859E-09</v>
       </c>
       <c r="K17">
-        <v>0.0004092410633317757</v>
+        <v>0.0004092410633317753</v>
       </c>
       <c r="L17">
-        <v>0.1698607632111437</v>
+        <v>0.1698607632111438</v>
       </c>
       <c r="M17">
-        <v>1478.99684524565</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.1698590839837182</v>
+      </c>
+      <c r="N17">
+        <v>1478.996845245651</v>
+      </c>
+      <c r="O17">
+        <v>1.679227425624233E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>79.18275956695905</v>
+        <v>79.18275956695906</v>
       </c>
       <c r="B18">
-        <v>2555.200932007484</v>
+        <v>2555.200932007486</v>
       </c>
       <c r="C18">
-        <v>3.888694105523817</v>
+        <v>3.88869410552382</v>
       </c>
       <c r="D18">
         <v>27323.55442871676</v>
       </c>
       <c r="E18">
-        <v>8896.54189842314</v>
+        <v>8896.541898423136</v>
       </c>
       <c r="F18">
-        <v>8239.550835104963</v>
+        <v>8239.550835104961</v>
       </c>
       <c r="G18">
-        <v>25.63815840085772</v>
+        <v>25.6381584008576</v>
       </c>
       <c r="H18">
-        <v>49.63305624899602</v>
+        <v>49.63305624899589</v>
       </c>
       <c r="I18">
-        <v>1.728128955060778E-09</v>
+        <v>1.728128955060777E-09</v>
       </c>
       <c r="J18">
         <v>1.592111715159121E-09</v>
       </c>
       <c r="K18">
-        <v>0.000379054431192874</v>
+        <v>0.0003790544311928738</v>
       </c>
       <c r="L18">
         <v>0.170594361856801</v>
       </c>
       <c r="M18">
-        <v>1470.587230446549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.1705926152510595</v>
+      </c>
+      <c r="N18">
+        <v>1470.58723044655</v>
+      </c>
+      <c r="O18">
+        <v>1.746605741551196E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>80.6364118542233</v>
+        <v>80.63641185422333</v>
       </c>
       <c r="B19">
-        <v>3258.701644595118</v>
+        <v>3258.701644595108</v>
       </c>
       <c r="C19">
-        <v>4.87199596164554</v>
+        <v>4.871995961645523</v>
       </c>
       <c r="D19">
         <v>27152.21092220767</v>
       </c>
       <c r="E19">
-        <v>8826.330528995673</v>
+        <v>8826.330528995672</v>
       </c>
       <c r="F19">
         <v>8157.586763098703</v>
       </c>
       <c r="G19">
-        <v>23.45508719518677</v>
+        <v>23.45508719518675</v>
       </c>
       <c r="H19">
-        <v>45.94798867684928</v>
+        <v>45.94798867684923</v>
       </c>
       <c r="I19">
         <v>1.757044671235303E-09</v>
       </c>
       <c r="J19">
-        <v>1.668612256828047E-09</v>
+        <v>1.668612256828048E-09</v>
       </c>
       <c r="K19">
-        <v>0.0003509366649019821</v>
+        <v>0.0003509366649019816</v>
       </c>
       <c r="L19">
         <v>0.1713338585790615</v>
       </c>
       <c r="M19">
+        <v>0.1713320395204584</v>
+      </c>
+      <c r="N19">
         <v>1462.028871869237</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>1.819058603110036E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>82.09006414148757</v>
+        <v>82.0900641414876</v>
       </c>
       <c r="B20">
-        <v>4113.34563221864</v>
+        <v>4113.345632218717</v>
       </c>
       <c r="C20">
-        <v>6.043812289892446</v>
+        <v>6.043812289892556</v>
       </c>
       <c r="D20">
         <v>26986.42673217682</v>
       </c>
       <c r="E20">
-        <v>8761.041040377564</v>
+        <v>8761.041040377557</v>
       </c>
       <c r="F20">
-        <v>8080.605543632601</v>
+        <v>8080.605543632594</v>
       </c>
       <c r="G20">
-        <v>21.50200566962989</v>
+        <v>21.50200566962987</v>
       </c>
       <c r="H20">
-        <v>42.65866943251964</v>
+        <v>42.65866943251962</v>
       </c>
       <c r="I20">
-        <v>1.787062392759713E-09</v>
+        <v>1.787062392759712E-09</v>
       </c>
       <c r="J20">
         <v>1.750655547374497E-09</v>
       </c>
       <c r="K20">
-        <v>0.000325153230030252</v>
+        <v>0.0003251532300302517</v>
       </c>
       <c r="L20">
-        <v>0.172062728193227</v>
+        <v>0.1720627281932271</v>
       </c>
       <c r="M20">
-        <v>1453.244405072131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.1720608313348083</v>
+      </c>
+      <c r="N20">
+        <v>1453.244405072132</v>
+      </c>
+      <c r="O20">
+        <v>1.896858418819491E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>83.54371642875182</v>
+        <v>83.54371642875185</v>
       </c>
       <c r="B21">
-        <v>5142.57990973081</v>
+        <v>5142.579909730814</v>
       </c>
       <c r="C21">
-        <v>7.428783880076963</v>
+        <v>7.428783880076964</v>
       </c>
       <c r="D21">
         <v>26825.6713537203</v>
@@ -1343,452 +1469,518 @@
         <v>8700.104101892679</v>
       </c>
       <c r="F21">
-        <v>8008.045230945494</v>
+        <v>8008.045230945495</v>
       </c>
       <c r="G21">
-        <v>19.76355993362199</v>
+        <v>19.76355993362197</v>
       </c>
       <c r="H21">
-        <v>39.73224533728825</v>
+        <v>39.73224533728823</v>
       </c>
       <c r="I21">
-        <v>1.818267314247234E-09</v>
+        <v>1.818267314247235E-09</v>
       </c>
       <c r="J21">
-        <v>1.838571009791275E-09</v>
+        <v>1.838571009791278E-09</v>
       </c>
       <c r="K21">
-        <v>0.0003017912231615419</v>
+        <v>0.000301791223161541</v>
       </c>
       <c r="L21">
-        <v>0.1727657725463406</v>
+        <v>0.1727657725463405</v>
       </c>
       <c r="M21">
-        <v>1444.1821936214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.1727637922791964</v>
+      </c>
+      <c r="N21">
+        <v>1444.182193621399</v>
+      </c>
+      <c r="O21">
+        <v>1.9802671441406E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>84.9973687160161</v>
+        <v>84.99736871601613</v>
       </c>
       <c r="B22">
-        <v>6372.02998392911</v>
+        <v>6372.029983929137</v>
       </c>
       <c r="C22">
-        <v>9.053171579051325</v>
+        <v>9.053171579051359</v>
       </c>
       <c r="D22">
         <v>26669.46017761501</v>
       </c>
       <c r="E22">
-        <v>8642.996517471023</v>
+        <v>8642.996517471025</v>
       </c>
       <c r="F22">
-        <v>7939.390395638326</v>
+        <v>7939.390395638328</v>
       </c>
       <c r="G22">
-        <v>18.22304894676229</v>
+        <v>18.22304894676232</v>
       </c>
       <c r="H22">
-        <v>37.13667336097461</v>
+        <v>37.13667336097464</v>
       </c>
       <c r="I22">
-        <v>1.850744179697236E-09</v>
+        <v>1.850744179697235E-09</v>
       </c>
       <c r="J22">
         <v>1.932678121832793E-09</v>
       </c>
       <c r="K22">
-        <v>0.0002808002670913396</v>
+        <v>0.0002808002670913394</v>
       </c>
       <c r="L22">
-        <v>0.1734293925234604</v>
+        <v>0.1734293925234605</v>
       </c>
       <c r="M22">
+        <v>0.1734273229917637</v>
+      </c>
+      <c r="N22">
         <v>1434.812565381645</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>2.069531696882281E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>86.45102100328036</v>
+        <v>86.45102100328039</v>
       </c>
       <c r="B23">
-        <v>7829.534031535023</v>
+        <v>7829.534031535045</v>
       </c>
       <c r="C23">
-        <v>10.94481939372221</v>
+        <v>10.94481939372224</v>
       </c>
       <c r="D23">
-        <v>26517.34981611683</v>
+        <v>26517.34981611682</v>
       </c>
       <c r="E23">
         <v>8589.239680554296</v>
       </c>
       <c r="F23">
-        <v>7874.170552974706</v>
+        <v>7874.170552974703</v>
       </c>
       <c r="G23">
-        <v>16.86327134233241</v>
+        <v>16.86327134233234</v>
       </c>
       <c r="H23">
-        <v>34.84128293971673</v>
+        <v>34.84128293971663</v>
       </c>
       <c r="I23">
-        <v>1.884578024612683E-09</v>
+        <v>1.884578024612686E-09</v>
       </c>
       <c r="J23">
-        <v>2.033281559382891E-09</v>
+        <v>2.033281559382896E-09</v>
       </c>
       <c r="K23">
-        <v>0.0002620372160007993</v>
+        <v>0.0002620372160007989</v>
       </c>
       <c r="L23">
         <v>0.1740416307570914</v>
       </c>
       <c r="M23">
-        <v>1425.124120931961</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.1740394658778233</v>
+      </c>
+      <c r="N23">
+        <v>1425.12412093196</v>
+      </c>
+      <c r="O23">
+        <v>2.164879268143835E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>87.90467329054462</v>
+        <v>87.90467329054465</v>
       </c>
       <c r="B24">
-        <v>9545.164106412207</v>
+        <v>9545.164106412234</v>
       </c>
       <c r="C24">
-        <v>13.13311144382773</v>
+        <v>13.13311144382777</v>
       </c>
       <c r="D24">
         <v>26368.93394567828</v>
       </c>
       <c r="E24">
-        <v>8538.397374020604</v>
+        <v>8538.397374020598</v>
       </c>
       <c r="F24">
-        <v>7811.957934659245</v>
+        <v>7811.957934659238</v>
       </c>
       <c r="G24">
-        <v>15.66713668377314</v>
+        <v>15.66713668377318</v>
       </c>
       <c r="H24">
-        <v>32.81714248172697</v>
+        <v>32.817142481727</v>
       </c>
       <c r="I24">
-        <v>1.919854903840561E-09</v>
+        <v>1.919854903840563E-09</v>
       </c>
       <c r="J24">
-        <v>2.140666220000183E-09</v>
+        <v>2.140666220000186E-09</v>
       </c>
       <c r="K24">
-        <v>0.0002453062557720193</v>
+        <v>0.0002453062557720187</v>
       </c>
       <c r="L24">
-        <v>0.1745920085732229</v>
+        <v>0.1745920085732228</v>
       </c>
       <c r="M24">
-        <v>1415.120117172867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.1745897420605092</v>
+      </c>
+      <c r="N24">
+        <v>1415.120117172866</v>
+      </c>
+      <c r="O24">
+        <v>2.266512713586791E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>89.35832557780888</v>
+        <v>89.35832557780891</v>
       </c>
       <c r="B25">
-        <v>11551.23456467942</v>
+        <v>11551.23456467945</v>
       </c>
       <c r="C25">
-        <v>15.64892420273133</v>
+        <v>15.64892420273137</v>
       </c>
       <c r="D25">
-        <v>26223.83960348875</v>
+        <v>26223.83960348874</v>
       </c>
       <c r="E25">
-        <v>8490.073161885719</v>
+        <v>8490.073161885728</v>
       </c>
       <c r="F25">
-        <v>7752.364851531145</v>
+        <v>7752.364851531153</v>
       </c>
       <c r="G25">
-        <v>14.6180941009375</v>
+        <v>14.61809410093749</v>
       </c>
       <c r="H25">
-        <v>31.03727724048053</v>
+        <v>31.03727724048051</v>
       </c>
       <c r="I25">
-        <v>1.956662606486638E-09</v>
+        <v>1.956662606486637E-09</v>
       </c>
       <c r="J25">
-        <v>2.255092310409957E-09</v>
+        <v>2.255092310409958E-09</v>
       </c>
       <c r="K25">
-        <v>0.0002303901739425321</v>
+        <v>0.0002303901739425319</v>
       </c>
       <c r="L25">
         <v>0.1750712089639482</v>
       </c>
       <c r="M25">
+        <v>0.1750688343577112</v>
+      </c>
+      <c r="N25">
         <v>1404.814997875354</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="O25">
+        <v>2.374606237027253E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>90.81197786507316</v>
+        <v>90.81197786507319</v>
       </c>
       <c r="B26">
-        <v>13882.29808476852</v>
+        <v>13882.29808476854</v>
       </c>
       <c r="C26">
-        <v>18.52457547323322</v>
+        <v>18.52457547323324</v>
       </c>
       <c r="D26">
         <v>26081.7238828796</v>
       </c>
       <c r="E26">
-        <v>8443.907558016834</v>
+        <v>8443.90755801683</v>
       </c>
       <c r="F26">
-        <v>7695.040833050726</v>
+        <v>7695.040833050727</v>
       </c>
       <c r="G26">
-        <v>13.70042060950673</v>
+        <v>13.70042060950678</v>
       </c>
       <c r="H26">
-        <v>29.47677595708489</v>
+        <v>29.47677595708493</v>
       </c>
       <c r="I26">
-        <v>1.995091360806625E-09</v>
+        <v>1.995091360806623E-09</v>
       </c>
       <c r="J26">
-        <v>2.376790702417552E-09</v>
+        <v>2.376790702417555E-09</v>
       </c>
       <c r="K26">
-        <v>0.0002170719706439308</v>
+        <v>0.0002170719706439306</v>
       </c>
       <c r="L26">
         <v>0.1754706761116712</v>
       </c>
       <c r="M26">
+        <v>0.1754681868100756</v>
+      </c>
+      <c r="N26">
         <v>1394.231170959498</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="O26">
+        <v>2.489301595584122E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>92.26563015233741</v>
+        <v>92.26563015233744</v>
       </c>
       <c r="B27">
-        <v>16575.12982438797</v>
+        <v>16575.1298243881</v>
       </c>
       <c r="C27">
-        <v>21.79377152123303</v>
+        <v>21.79377152123319</v>
       </c>
       <c r="D27">
         <v>25942.27097967833</v>
       </c>
       <c r="E27">
-        <v>8399.575108587904</v>
+        <v>8399.575108587906</v>
       </c>
       <c r="F27">
-        <v>7639.669680894494</v>
+        <v>7639.669680894493</v>
       </c>
       <c r="G27">
-        <v>12.89940270553367</v>
+        <v>12.89940270553365</v>
       </c>
       <c r="H27">
-        <v>28.11281569520407</v>
+        <v>28.11281569520406</v>
       </c>
       <c r="I27">
-        <v>2.035234533190868E-09</v>
+        <v>2.035234533190869E-09</v>
       </c>
       <c r="J27">
-        <v>2.505958770673089E-09</v>
+        <v>2.50595877067309E-09</v>
       </c>
       <c r="K27">
-        <v>0.0002051480118468372</v>
+        <v>0.0002051480118468371</v>
       </c>
       <c r="L27">
         <v>0.1757822091627794</v>
       </c>
       <c r="M27">
-        <v>1383.396128866494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.1757795984577196</v>
+      </c>
+      <c r="N27">
+        <v>1383.396128866493</v>
+      </c>
+      <c r="O27">
+        <v>2.610705059823347E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>93.71928243960167</v>
+        <v>93.71928243960171</v>
       </c>
       <c r="B28">
-        <v>19668.70039523165</v>
+        <v>19668.70039523174</v>
       </c>
       <c r="C28">
-        <v>25.49155373790962</v>
+        <v>25.49155373790973</v>
       </c>
       <c r="D28">
         <v>25805.18954769733</v>
       </c>
       <c r="E28">
-        <v>8356.781487076834</v>
+        <v>8356.781487076832</v>
       </c>
       <c r="F28">
         <v>7585.966535979434</v>
       </c>
       <c r="G28">
-        <v>12.20143776106776</v>
+        <v>12.20143776106778</v>
       </c>
       <c r="H28">
-        <v>26.92462784671744</v>
+        <v>26.92462784671743</v>
       </c>
       <c r="I28">
-        <v>2.077189326318213E-09</v>
+        <v>2.077189326318212E-09</v>
       </c>
       <c r="J28">
-        <v>2.642756920521116E-09</v>
+        <v>2.642756920521121E-09</v>
       </c>
       <c r="K28">
-        <v>0.0001944347424993969</v>
+        <v>0.0001944347424993964</v>
       </c>
       <c r="L28">
-        <v>0.1759976231361329</v>
+        <v>0.1759976231361328</v>
       </c>
       <c r="M28">
+        <v>0.1759948842507814</v>
+      </c>
+      <c r="N28">
         <v>1372.339984329414</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="O28">
+        <v>2.738885351429572E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>95.17293472686595</v>
+        <v>95.17293472686598</v>
       </c>
       <c r="B29">
-        <v>23204.13844799418</v>
+        <v>23204.13844799445</v>
       </c>
       <c r="C29">
-        <v>29.65424612659947</v>
+        <v>29.65424612659982</v>
       </c>
       <c r="D29">
-        <v>25670.21032683445</v>
+        <v>25670.21032683444</v>
       </c>
       <c r="E29">
         <v>8315.260671198144</v>
       </c>
       <c r="F29">
-        <v>7533.675028757299</v>
+        <v>7533.675028757298</v>
       </c>
       <c r="G29">
-        <v>11.59407605369089</v>
+        <v>11.5940760536909</v>
       </c>
       <c r="H29">
-        <v>25.89342311908312</v>
+        <v>25.89342311908314</v>
       </c>
       <c r="I29">
-        <v>2.121057482326833E-09</v>
+        <v>2.121057482326836E-09</v>
       </c>
       <c r="J29">
-        <v>2.787305993687123E-09</v>
+        <v>2.787305993687129E-09</v>
       </c>
       <c r="K29">
-        <v>0.0001847710074616425</v>
+        <v>0.0001847710074616421</v>
       </c>
       <c r="L29">
-        <v>0.1761085343538136</v>
+        <v>0.1761085343538135</v>
       </c>
       <c r="M29">
+        <v>0.1761056604810592</v>
+      </c>
+      <c r="N29">
         <v>1361.093459841676</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O29">
+        <v>2.873872754294234E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>96.62658701413019</v>
+        <v>96.62658701413024</v>
       </c>
       <c r="B30">
-        <v>27224.68374500118</v>
+        <v>27224.68374500138</v>
       </c>
       <c r="C30">
-        <v>34.31940481983573</v>
+        <v>34.31940481983597</v>
       </c>
       <c r="D30">
         <v>25537.08401185628</v>
       </c>
       <c r="E30">
-        <v>8274.772248569607</v>
+        <v>8274.77224856961</v>
       </c>
       <c r="F30">
-        <v>7482.564559949467</v>
+        <v>7482.564559949474</v>
       </c>
       <c r="G30">
-        <v>11.06601969908594</v>
+        <v>11.06601969908603</v>
       </c>
       <c r="H30">
-        <v>25.0022891973737</v>
+        <v>25.00228919737374</v>
       </c>
       <c r="I30">
-        <v>2.166945997494228E-09</v>
+        <v>2.166945997494227E-09</v>
       </c>
       <c r="J30">
         <v>2.939685704239212E-09</v>
       </c>
       <c r="K30">
-        <v>0.0001760176788470984</v>
+        <v>0.0001760176788470983</v>
       </c>
       <c r="L30">
-        <v>0.1761063044258241</v>
+        <v>0.1761063044258242</v>
       </c>
       <c r="M30">
-        <v>1349.686334078053</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.1761032887662707</v>
+      </c>
+      <c r="N30">
+        <v>1349.686334078052</v>
+      </c>
+      <c r="O30">
+        <v>3.015659553470894E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>98.08023930139446</v>
+        <v>98.0802393013945</v>
       </c>
       <c r="B31">
-        <v>31775.63165660409</v>
+        <v>31775.63165660388</v>
       </c>
       <c r="C31">
-        <v>39.52577073087692</v>
+        <v>39.52577073087664</v>
       </c>
       <c r="D31">
-        <v>25405.57933392316</v>
+        <v>25405.57933392315</v>
       </c>
       <c r="E31">
-        <v>8235.098880728539</v>
+        <v>8235.098880728521</v>
       </c>
       <c r="F31">
-        <v>7432.427741636344</v>
+        <v>7432.42774163633</v>
       </c>
       <c r="G31">
-        <v>10.60709111223726</v>
+        <v>10.60709111223728</v>
       </c>
       <c r="H31">
-        <v>24.23607150836898</v>
+        <v>24.23607150836897</v>
       </c>
       <c r="I31">
         <v>2.214967855487569E-09</v>
       </c>
       <c r="J31">
-        <v>3.09993420926806E-09</v>
+        <v>3.099934209268064E-09</v>
       </c>
       <c r="K31">
-        <v>0.000168055833799311</v>
+        <v>0.0001680558337993108</v>
       </c>
       <c r="L31">
         <v>0.1759821495483394</v>
       </c>
       <c r="M31">
+        <v>0.1759789853464364</v>
+      </c>
+      <c r="N31">
         <v>1338.146318604701</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="O31">
+        <v>3.164201902993172E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>99.53389158865873</v>
+        <v>99.53389158865878</v>
       </c>
       <c r="B32">
-        <v>36904.27005250267</v>
+        <v>36904.27005250271</v>
       </c>
       <c r="C32">
-        <v>45.31322633826163</v>
+        <v>45.31322633826166</v>
       </c>
       <c r="D32">
-        <v>25275.48133038036</v>
+        <v>25275.48133038035</v>
       </c>
       <c r="E32">
         <v>8196.043942202297</v>
@@ -1797,1020 +1989,1170 @@
         <v>7383.078015634957</v>
       </c>
       <c r="G32">
-        <v>10.20818072410024</v>
+        <v>10.20818072410025</v>
       </c>
       <c r="H32">
-        <v>23.58124493604709</v>
+        <v>23.58124493604707</v>
       </c>
       <c r="I32">
-        <v>2.265242786782093E-09</v>
+        <v>2.265242786782094E-09</v>
       </c>
       <c r="J32">
-        <v>3.268048861744894E-09</v>
+        <v>3.2680488617449E-09</v>
       </c>
       <c r="K32">
-        <v>0.0001607843103527883</v>
+        <v>0.000160784310352788</v>
       </c>
       <c r="L32">
         <v>0.1757273952352321</v>
       </c>
       <c r="M32">
-        <v>1326.498316666974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.1757240758120698</v>
+      </c>
+      <c r="N32">
+        <v>1326.498316666973</v>
+      </c>
+      <c r="O32">
+        <v>3.31942316231278E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>100.987543875923</v>
       </c>
       <c r="B33">
-        <v>42659.80957270767</v>
+        <v>42659.80957270783</v>
       </c>
       <c r="C33">
-        <v>51.72275749630782</v>
+        <v>51.72275749630799</v>
       </c>
       <c r="D33">
         <v>25146.58978135076</v>
       </c>
       <c r="E33">
-        <v>8157.429341782765</v>
+        <v>8157.42934178276</v>
       </c>
       <c r="F33">
-        <v>7334.347456481126</v>
+        <v>7334.347456481116</v>
       </c>
       <c r="G33">
-        <v>9.861181381851162</v>
+        <v>9.861181381851209</v>
       </c>
       <c r="H33">
-        <v>23.02578231149024</v>
+        <v>23.02578231149028</v>
       </c>
       <c r="I33">
-        <v>2.317898062387111E-09</v>
+        <v>2.317898062387116E-09</v>
       </c>
       <c r="J33">
-        <v>3.443988131874689E-09</v>
+        <v>3.443988131874695E-09</v>
       </c>
       <c r="K33">
-        <v>0.0001541171443860067</v>
+        <v>0.0001541171443860064</v>
       </c>
       <c r="L33">
         <v>0.1753338351784612</v>
       </c>
       <c r="M33">
-        <v>1314.764003436415</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.175330353959784</v>
+      </c>
+      <c r="N33">
+        <v>1314.764003436413</v>
+      </c>
+      <c r="O33">
+        <v>3.481218677221502E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>102.4411961631872</v>
+        <v>102.4411961631873</v>
       </c>
       <c r="B34">
-        <v>49093.30825790524</v>
+        <v>49093.30825790537</v>
       </c>
       <c r="C34">
-        <v>58.79642106354502</v>
+        <v>58.79642106354515</v>
       </c>
       <c r="D34">
-        <v>25018.7177942802</v>
+        <v>25018.71779428019</v>
       </c>
       <c r="E34">
-        <v>8119.093526215263</v>
+        <v>8119.093526215264</v>
       </c>
       <c r="F34">
-        <v>7286.084759339092</v>
+        <v>7286.084759339091</v>
       </c>
       <c r="G34">
-        <v>9.558915044097763</v>
+        <v>9.558915044097782</v>
       </c>
       <c r="H34">
-        <v>22.55902391511433</v>
+        <v>22.55902391511435</v>
       </c>
       <c r="I34">
-        <v>2.373069330600151E-09</v>
+        <v>2.373069330600156E-09</v>
       </c>
       <c r="J34">
-        <v>3.627674623324622E-09</v>
+        <v>3.627674623324634E-09</v>
       </c>
       <c r="K34">
-        <v>0.000147981162356756</v>
+        <v>0.0001479811623567558</v>
       </c>
       <c r="L34">
         <v>0.1747941406436515</v>
       </c>
       <c r="M34">
-        <v>1302.961662886516</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.1747904911817312</v>
+      </c>
+      <c r="N34">
+        <v>1302.961662886515</v>
+      </c>
+      <c r="O34">
+        <v>3.649461920279986E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>103.8948484504515</v>
+        <v>103.8948484504516</v>
       </c>
       <c r="B35">
-        <v>56257.5914984226</v>
+        <v>56257.59149842278</v>
       </c>
       <c r="C35">
-        <v>66.57731904832842</v>
+        <v>66.5773190483286</v>
       </c>
       <c r="D35">
-        <v>24891.69051986164</v>
+        <v>24891.69051986163</v>
       </c>
       <c r="E35">
-        <v>8080.889661602231</v>
+        <v>8080.889661602234</v>
       </c>
       <c r="F35">
-        <v>7238.153408206519</v>
+        <v>7238.153408206517</v>
       </c>
       <c r="G35">
-        <v>9.295055952040851</v>
+        <v>9.295055952040855</v>
       </c>
       <c r="H35">
-        <v>22.17155099592708</v>
+        <v>22.17155099592709</v>
       </c>
       <c r="I35">
-        <v>2.430901506158574E-09</v>
+        <v>2.43090150615858E-09</v>
       </c>
       <c r="J35">
-        <v>3.818999057175287E-09</v>
+        <v>3.818999057175296E-09</v>
       </c>
       <c r="K35">
-        <v>0.0001423138564437844</v>
+        <v>0.0001423138564437842</v>
       </c>
       <c r="L35">
-        <v>0.1741022660539799</v>
+        <v>0.1741022660539798</v>
       </c>
       <c r="M35">
-        <v>1291.106218590841</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.1740984420421268</v>
+      </c>
+      <c r="N35">
+        <v>1291.106218590839</v>
+      </c>
+      <c r="O35">
+        <v>3.824011853040775E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>105.3485007377158</v>
       </c>
       <c r="B36">
-        <v>64207.16822795649</v>
+        <v>64207.16822795686</v>
       </c>
       <c r="C36">
-        <v>75.10957988947375</v>
+        <v>75.10957988947419</v>
       </c>
       <c r="D36">
         <v>24765.3439847406</v>
       </c>
       <c r="E36">
-        <v>8042.683984468424</v>
+        <v>8042.683984468428</v>
       </c>
       <c r="F36">
         <v>7190.430016393429</v>
       </c>
       <c r="G36">
-        <v>9.064053336352679</v>
+        <v>9.06405333635268</v>
       </c>
       <c r="H36">
-        <v>21.85506535941203</v>
+        <v>21.85506535941207</v>
       </c>
       <c r="I36">
-        <v>2.49154972190431E-09</v>
+        <v>2.491549721904316E-09</v>
       </c>
       <c r="J36">
-        <v>4.017825053693042E-09</v>
+        <v>4.01782505369305E-09</v>
       </c>
       <c r="K36">
-        <v>0.0001370615798367266</v>
+        <v>0.0001370615798367264</v>
       </c>
       <c r="L36">
         <v>0.1732538072102344</v>
       </c>
       <c r="M36">
-        <v>1279.209402077297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.1732498024889024</v>
+      </c>
+      <c r="N36">
+        <v>1279.209402077296</v>
+      </c>
+      <c r="O36">
+        <v>4.004721331987808E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>106.80215302498</v>
+        <v>106.8021530249801</v>
       </c>
       <c r="B37">
-        <v>72998.14424542164</v>
+        <v>72998.14424542197</v>
       </c>
       <c r="C37">
-        <v>84.4383474218014</v>
+        <v>84.43834742180175</v>
       </c>
       <c r="D37">
-        <v>24639.52402812373</v>
+        <v>24639.52402812372</v>
       </c>
       <c r="E37">
-        <v>8004.354312267631</v>
+        <v>8004.35431226763</v>
       </c>
       <c r="F37">
         <v>7142.802829061204</v>
       </c>
       <c r="G37">
-        <v>8.861055845323021</v>
+        <v>8.861055845323076</v>
       </c>
       <c r="H37">
-        <v>21.60227634496904</v>
+        <v>21.60227634496908</v>
       </c>
       <c r="I37">
         <v>2.55518035394674E-09</v>
       </c>
       <c r="J37">
-        <v>4.223994513088207E-09</v>
+        <v>4.223994513088211E-09</v>
       </c>
       <c r="K37">
-        <v>0.0001321780512140942</v>
+        <v>0.000132178051214094</v>
       </c>
       <c r="L37">
-        <v>0.1722462879988377</v>
+        <v>0.1722462879988378</v>
       </c>
       <c r="M37">
+        <v>0.1722420965524831</v>
+      </c>
+      <c r="N37">
         <v>1267.2800109871</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="O37">
+        <v>4.191446354668259E-06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>108.2558053122443</v>
       </c>
       <c r="B38">
-        <v>82688.13349862819</v>
+        <v>82688.13349862894</v>
       </c>
       <c r="C38">
-        <v>94.60977802410945</v>
+        <v>94.6097780241103</v>
       </c>
       <c r="D38">
-        <v>24514.08533090659</v>
+        <v>24514.08533090658</v>
       </c>
       <c r="E38">
-        <v>7965.78870183452</v>
+        <v>7965.788701834535</v>
       </c>
       <c r="F38">
-        <v>7095.170376313886</v>
+        <v>7095.170376313892</v>
       </c>
       <c r="G38">
-        <v>8.681839202721147</v>
+        <v>8.681839202721166</v>
       </c>
       <c r="H38">
-        <v>21.40679595953066</v>
+        <v>21.40679595953071</v>
       </c>
       <c r="I38">
-        <v>2.62197213233113E-09</v>
+        <v>2.621972132331141E-09</v>
       </c>
       <c r="J38">
-        <v>4.43733338271E-09</v>
+        <v>4.437333382710014E-09</v>
       </c>
       <c r="K38">
-        <v>0.0001276231342381922</v>
+        <v>0.0001276231342381919</v>
       </c>
       <c r="L38">
-        <v>0.1710793737141322</v>
+        <v>0.1710793737141321</v>
       </c>
       <c r="M38">
-        <v>1255.324218636119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.1710749896581991</v>
+      </c>
+      <c r="N38">
+        <v>1255.324218636117</v>
+      </c>
+      <c r="O38">
+        <v>4.384055933008781E-06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>109.7094575995086</v>
       </c>
       <c r="B39">
-        <v>93336.16810930207</v>
+        <v>93336.16810930301</v>
       </c>
       <c r="C39">
-        <v>105.671046411559</v>
+        <v>105.67104641156</v>
       </c>
       <c r="D39">
         <v>24388.8905272374</v>
       </c>
       <c r="E39">
-        <v>7926.884243668463</v>
+        <v>7926.884243668462</v>
       </c>
       <c r="F39">
-        <v>7047.440264708684</v>
+        <v>7047.440264708681</v>
       </c>
       <c r="G39">
-        <v>8.522738083605313</v>
+        <v>8.522738083605303</v>
       </c>
       <c r="H39">
         <v>21.26304251898843</v>
       </c>
       <c r="I39">
-        <v>2.692117350423507E-09</v>
+        <v>2.692117350423511E-09</v>
       </c>
       <c r="J39">
-        <v>4.657657599375318E-09</v>
+        <v>4.657657599375321E-09</v>
       </c>
       <c r="K39">
         <v>0.0001233618498162337</v>
       </c>
       <c r="L39">
-        <v>0.1697550268768199</v>
+        <v>0.1697550268768198</v>
       </c>
       <c r="M39">
-        <v>1243.345905587477</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1697504444344335</v>
+      </c>
+      <c r="N39">
+        <v>1243.345905587476</v>
+      </c>
+      <c r="O39">
+        <v>4.582442386357559E-06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>111.1631098867728</v>
+        <v>111.1631098867729</v>
       </c>
       <c r="B40">
-        <v>105002.6078624424</v>
+        <v>105002.607862443</v>
       </c>
       <c r="C40">
-        <v>117.6703605169653</v>
+        <v>117.670360516966</v>
       </c>
       <c r="D40">
         <v>24263.80938956424</v>
       </c>
       <c r="E40">
-        <v>7887.545979798624</v>
+        <v>7887.54597979861</v>
       </c>
       <c r="F40">
-        <v>6999.528094913533</v>
+        <v>6999.528094913523</v>
       </c>
       <c r="G40">
-        <v>8.380582800740243</v>
+        <v>8.380582800740216</v>
       </c>
       <c r="H40">
-        <v>21.16615284386459</v>
+        <v>21.16615284386454</v>
       </c>
       <c r="I40">
-        <v>2.765823187641314E-09</v>
+        <v>2.765823187641309E-09</v>
       </c>
       <c r="J40">
-        <v>4.884779010023507E-09</v>
+        <v>4.884779010023509E-09</v>
       </c>
       <c r="K40">
-        <v>0.0001193635790897527</v>
+        <v>0.0001193635790897526</v>
       </c>
       <c r="L40">
         <v>0.1682776277491138</v>
       </c>
       <c r="M40">
-        <v>1231.346991870777</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1682728412172485</v>
+      </c>
+      <c r="N40">
+        <v>1231.346991870778</v>
+      </c>
+      <c r="O40">
+        <v>4.786531865309755E-06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>112.6167621740371</v>
       </c>
       <c r="B41">
-        <v>117749.0498261584</v>
+        <v>117749.0498261595</v>
       </c>
       <c r="C41">
-        <v>130.6569859071571</v>
+        <v>130.6569859071583</v>
       </c>
       <c r="D41">
-        <v>24138.71807919724</v>
+        <v>24138.71807919723</v>
       </c>
       <c r="E41">
-        <v>7847.685933179685</v>
+        <v>7847.685933179681</v>
       </c>
       <c r="F41">
-        <v>6951.356493444652</v>
+        <v>6951.356493444648</v>
       </c>
       <c r="G41">
-        <v>8.252641097342162</v>
+        <v>8.25264109734216</v>
       </c>
       <c r="H41">
-        <v>21.11190283652589</v>
+        <v>21.1119028365259</v>
       </c>
       <c r="I41">
-        <v>2.84331316182967E-09</v>
+        <v>2.843313161829676E-09</v>
       </c>
       <c r="J41">
-        <v>5.118511098851235E-09</v>
+        <v>5.118511098851248E-09</v>
       </c>
       <c r="K41">
-        <v>0.0001156014193549506</v>
+        <v>0.0001156014193549503</v>
       </c>
       <c r="L41">
-        <v>0.1666540728377091</v>
+        <v>0.166654072837709</v>
       </c>
       <c r="M41">
-        <v>1219.327755219522</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.1666490765427634</v>
+      </c>
+      <c r="N41">
+        <v>1219.327755219521</v>
+      </c>
+      <c r="O41">
+        <v>4.996294945662474E-06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>114.0704144613014</v>
       </c>
       <c r="B42">
-        <v>131638.2387124822</v>
+        <v>131638.2387124834</v>
       </c>
       <c r="C42">
-        <v>144.6812802022204</v>
+        <v>144.6812802022217</v>
       </c>
       <c r="D42">
         <v>24013.49845527405</v>
       </c>
       <c r="E42">
-        <v>7807.222236996714</v>
+        <v>7807.22223699671</v>
       </c>
       <c r="F42">
-        <v>6902.854246856994</v>
+        <v>6902.854246856996</v>
       </c>
       <c r="G42">
-        <v>8.136565122737879</v>
+        <v>8.136565122737906</v>
       </c>
       <c r="H42">
-        <v>21.09663611525138</v>
+        <v>21.09663611525139</v>
       </c>
       <c r="I42">
-        <v>2.924828729547663E-09</v>
+        <v>2.924828729547659E-09</v>
       </c>
       <c r="J42">
-        <v>5.358674381129018E-09</v>
+        <v>5.358674381129012E-09</v>
       </c>
       <c r="K42">
-        <v>0.0001120516608757444</v>
+        <v>0.0001120516608757445</v>
       </c>
       <c r="L42">
-        <v>0.1648938421983502</v>
+        <v>0.1648938421983503</v>
       </c>
       <c r="M42">
+        <v>0.1648886304411841</v>
+      </c>
+      <c r="N42">
         <v>1207.287126078048</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="O42">
+        <v>5.211757166232834E-06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>115.5240667485656</v>
+        <v>115.5240667485657</v>
       </c>
       <c r="B43">
-        <v>146733.9785365957</v>
+        <v>146733.9785365944</v>
       </c>
       <c r="C43">
-        <v>159.7947380081042</v>
+        <v>159.7947380081027</v>
       </c>
       <c r="D43">
-        <v>23888.03743576179</v>
+        <v>23888.03743576178</v>
       </c>
       <c r="E43">
-        <v>7766.078352834526</v>
+        <v>7766.078352834516</v>
       </c>
       <c r="F43">
-        <v>6853.955527352588</v>
+        <v>6853.955527352582</v>
       </c>
       <c r="G43">
-        <v>8.030343509366597</v>
+        <v>8.030343509366581</v>
       </c>
       <c r="H43">
-        <v>21.1172002804579</v>
+        <v>21.11720028045786</v>
       </c>
       <c r="I43">
-        <v>3.01063105483898E-09</v>
+        <v>3.010631054838978E-09</v>
       </c>
       <c r="J43">
-        <v>5.60510135953365E-09</v>
+        <v>5.60510135953366E-09</v>
       </c>
       <c r="K43">
-        <v>0.0001086933584546031</v>
+        <v>0.000108693358454603</v>
       </c>
       <c r="L43">
-        <v>0.1630089982692976</v>
+        <v>0.1630089982692975</v>
       </c>
       <c r="M43">
-        <v>1195.222954237898</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.1630035652598763</v>
+      </c>
+      <c r="N43">
+        <v>1195.222954237899</v>
+      </c>
+      <c r="O43">
+        <v>5.433009421239912E-06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>116.9777190358299</v>
       </c>
       <c r="B44">
-        <v>163101.0460826849</v>
+        <v>163101.0460826854</v>
       </c>
       <c r="C44">
-        <v>176.050046937969</v>
+        <v>176.0500469379693</v>
       </c>
       <c r="D44">
         <v>23762.22640477684</v>
       </c>
       <c r="E44">
-        <v>7724.182367326456</v>
+        <v>7724.182367326457</v>
       </c>
       <c r="F44">
-        <v>6804.599199450237</v>
+        <v>6804.599199450238</v>
       </c>
       <c r="G44">
-        <v>7.932258358936553</v>
+        <v>7.932258358936563</v>
       </c>
       <c r="H44">
-        <v>21.17089032830607</v>
+        <v>21.17089032830614</v>
       </c>
       <c r="I44">
-        <v>3.101002969775774E-09</v>
+        <v>3.101002969775784E-09</v>
       </c>
       <c r="J44">
-        <v>5.857640974826904E-09</v>
+        <v>5.857640974826917E-09</v>
       </c>
       <c r="K44">
-        <v>0.0001055079769980153</v>
+        <v>0.0001055079769980151</v>
       </c>
       <c r="L44">
-        <v>0.1610140578348387</v>
+        <v>0.1610140578348386</v>
       </c>
       <c r="M44">
-        <v>1183.132244965727</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.1610083976166843</v>
+      </c>
+      <c r="N44">
+        <v>1183.132244965726</v>
+      </c>
+      <c r="O44">
+        <v>5.660218154298461E-06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>118.4313713230941</v>
+        <v>118.4313713230942</v>
       </c>
       <c r="B45">
-        <v>180805.1066400489</v>
+        <v>180805.1066400488</v>
       </c>
       <c r="C45">
-        <v>193.5011553860152</v>
+        <v>193.501155386015</v>
       </c>
       <c r="D45">
-        <v>23635.96066106769</v>
+        <v>23635.96066106768</v>
       </c>
       <c r="E45">
-        <v>7681.466357596397</v>
+        <v>7681.466357596398</v>
       </c>
       <c r="F45">
-        <v>6754.728198080986</v>
+        <v>6754.728198080987</v>
       </c>
       <c r="G45">
-        <v>7.840846871674191</v>
+        <v>7.840846871674212</v>
       </c>
       <c r="H45">
-        <v>21.25539869715718</v>
+        <v>21.25539869715719</v>
       </c>
       <c r="I45">
-        <v>3.196251153254444E-09</v>
+        <v>3.196251153254448E-09</v>
       </c>
       <c r="J45">
-        <v>6.116162516422297E-09</v>
+        <v>6.116162516422303E-09</v>
       </c>
       <c r="K45">
-        <v>0.0001024790948862996</v>
+        <v>0.0001024790948862995</v>
       </c>
       <c r="L45">
-        <v>0.1589256772299908</v>
+        <v>0.1589256772299907</v>
       </c>
       <c r="M45">
+        <v>0.1589197835946564</v>
+      </c>
+      <c r="N45">
         <v>1171.011364575975</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="O45">
+        <v>5.893635334226837E-06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>119.8850236103584</v>
+        <v>119.8850236103585</v>
       </c>
       <c r="B46">
-        <v>199912.6324339318</v>
+        <v>199912.6324339323</v>
       </c>
       <c r="C46">
-        <v>212.2033528310176</v>
+        <v>212.2033528310181</v>
       </c>
       <c r="D46">
-        <v>23509.13890299476</v>
+        <v>23509.13890299475</v>
       </c>
       <c r="E46">
         <v>7637.865816508739</v>
       </c>
       <c r="F46">
-        <v>6704.288969198455</v>
+        <v>6704.288969198454</v>
       </c>
       <c r="G46">
-        <v>7.754867306847552</v>
+        <v>7.75486730684753</v>
       </c>
       <c r="H46">
-        <v>21.36877142534215</v>
+        <v>21.36877142534216</v>
       </c>
       <c r="I46">
-        <v>3.2967085582733E-09</v>
+        <v>3.296708558273307E-09</v>
       </c>
       <c r="J46">
-        <v>6.380558987893257E-09</v>
+        <v>6.380558987893264E-09</v>
       </c>
       <c r="K46">
-        <v>9.959215268771214E-05</v>
+        <v>9.959215268771203E-05</v>
       </c>
       <c r="L46">
-        <v>0.1567621157563921</v>
+        <v>0.156762115756392</v>
       </c>
       <c r="M46">
-        <v>1158.856216775363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1567559821481707</v>
+      </c>
+      <c r="N46">
+        <v>1158.856216775362</v>
+      </c>
+      <c r="O46">
+        <v>6.13360822122714E-06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>121.3386758976227</v>
       </c>
       <c r="B47">
-        <v>220490.8241424797</v>
+        <v>220490.8241424796</v>
       </c>
       <c r="C47">
-        <v>232.2133635874555</v>
+        <v>232.2133635874552</v>
       </c>
       <c r="D47">
         <v>23381.66274576584</v>
       </c>
       <c r="E47">
-        <v>7593.31912942218</v>
+        <v>7593.319129422172</v>
       </c>
       <c r="F47">
-        <v>6653.230964699673</v>
+        <v>6653.230964699663</v>
       </c>
       <c r="G47">
-        <v>7.673268938227698</v>
+        <v>7.673268938227684</v>
       </c>
       <c r="H47">
-        <v>21.5093699084508</v>
+        <v>21.50936990845081</v>
       </c>
       <c r="I47">
-        <v>3.402737122337992E-09</v>
+        <v>3.402737122338E-09</v>
       </c>
       <c r="J47">
-        <v>6.650749946636574E-09</v>
+        <v>6.650749946636584E-09</v>
       </c>
       <c r="K47">
-        <v>9.683423771168604E-05</v>
+        <v>9.683423771168592E-05</v>
       </c>
       <c r="L47">
-        <v>0.1545424895034285</v>
+        <v>0.1545424895034284</v>
       </c>
       <c r="M47">
+        <v>0.1545361089144738</v>
+      </c>
+      <c r="N47">
         <v>1146.662391937115</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="O47">
+        <v>6.380588954654382E-06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>122.7923281848869</v>
+        <v>122.792328184887</v>
       </c>
       <c r="B48">
         <v>242607.5358646341</v>
       </c>
       <c r="C48">
-        <v>253.5894550922893</v>
+        <v>253.5894550922892</v>
       </c>
       <c r="D48">
         <v>23253.43626705108</v>
       </c>
       <c r="E48">
-        <v>7547.767094787503</v>
+        <v>7547.767094787506</v>
       </c>
       <c r="F48">
         <v>6601.506184122108</v>
       </c>
       <c r="G48">
-        <v>7.595165659460902</v>
+        <v>7.595165659460893</v>
       </c>
       <c r="H48">
         <v>21.67583776623939</v>
       </c>
       <c r="I48">
-        <v>3.514730800845878E-09</v>
+        <v>3.51473080084588E-09</v>
       </c>
       <c r="J48">
-        <v>6.926683855271236E-09</v>
+        <v>6.926683855271246E-09</v>
       </c>
       <c r="K48">
-        <v>9.419389718804743E-05</v>
+        <v>9.419389718804734E-05</v>
       </c>
       <c r="L48">
         <v>0.1522858825497334</v>
       </c>
       <c r="M48">
+        <v>0.1522792474057232</v>
+      </c>
+      <c r="N48">
         <v>1134.425291898144</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="O48">
+        <v>6.635144010194665E-06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>124.2459804721512</v>
+        <v>124.2459804721513</v>
       </c>
       <c r="B49">
-        <v>266331.2038840139</v>
+        <v>266331.2038840193</v>
       </c>
       <c r="C49">
-        <v>276.3915620179285</v>
+        <v>276.3915620179345</v>
       </c>
       <c r="D49">
-        <v>23124.36557741675</v>
+        <v>23124.36557741674</v>
       </c>
       <c r="E49">
-        <v>7501.152481524401</v>
+        <v>7501.152481524394</v>
       </c>
       <c r="F49">
-        <v>6549.068756203481</v>
+        <v>6549.068756203472</v>
       </c>
       <c r="G49">
-        <v>7.519812897129154</v>
+        <v>7.519812897129178</v>
       </c>
       <c r="H49">
-        <v>21.86707235966827</v>
+        <v>21.86707235966834</v>
       </c>
       <c r="I49">
-        <v>3.633118969448238E-09</v>
+        <v>3.633118969448249E-09</v>
       </c>
       <c r="J49">
-        <v>7.208339995058669E-09</v>
+        <v>7.208339995058684E-09</v>
       </c>
       <c r="K49">
-        <v>9.166097461009507E-05</v>
+        <v>9.166097461009495E-05</v>
       </c>
       <c r="L49">
-        <v>0.1500104249493187</v>
+        <v>0.1500104249493185</v>
       </c>
       <c r="M49">
-        <v>1122.140233030646</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.1500035269857331</v>
+      </c>
+      <c r="N49">
+        <v>1122.140233030645</v>
+      </c>
+      <c r="O49">
+        <v>6.89796358545787E-06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>125.6996327594155</v>
       </c>
       <c r="B50">
-        <v>291730.7795612047</v>
+        <v>291730.7795612058</v>
       </c>
       <c r="C50">
-        <v>300.6814277401829</v>
+        <v>300.6814277401839</v>
       </c>
       <c r="D50">
         <v>22994.35841228511</v>
       </c>
       <c r="E50">
-        <v>7453.419616653526</v>
+        <v>7453.419616653518</v>
       </c>
       <c r="F50">
-        <v>6495.874553957137</v>
+        <v>6495.874553957134</v>
       </c>
       <c r="G50">
-        <v>7.446587500237455</v>
+        <v>7.446587500237432</v>
       </c>
       <c r="H50">
-        <v>22.08220053482884</v>
+        <v>22.0822005348288</v>
       </c>
       <c r="I50">
-        <v>3.758370248666053E-09</v>
+        <v>3.758370248666048E-09</v>
       </c>
       <c r="J50">
         <v>7.495729999233757E-09</v>
       </c>
       <c r="K50">
-        <v>8.922646510276147E-05</v>
+        <v>8.922646510276143E-05</v>
       </c>
       <c r="L50">
         <v>0.1477324610919949</v>
       </c>
       <c r="M50">
-        <v>1109.802530312517</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.1477252912210158</v>
+      </c>
+      <c r="N50">
+        <v>1109.802530312518</v>
+      </c>
+      <c r="O50">
+        <v>7.169870979125708E-06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>127.1532850466797</v>
+        <v>127.1532850466798</v>
       </c>
       <c r="B51">
-        <v>318875.6666815402</v>
+        <v>318875.666681541</v>
       </c>
       <c r="C51">
-        <v>326.5227649679421</v>
+        <v>326.5227649679427</v>
       </c>
       <c r="D51">
-        <v>22863.32374235389</v>
+        <v>22863.32374235388</v>
       </c>
       <c r="E51">
-        <v>7404.513997142929</v>
+        <v>7404.513997142928</v>
       </c>
       <c r="F51">
-        <v>6441.880837422899</v>
+        <v>6441.880837422898</v>
       </c>
       <c r="G51">
-        <v>7.374970291375831</v>
+        <v>7.374970291375828</v>
       </c>
       <c r="H51">
         <v>22.32055821059795</v>
       </c>
       <c r="I51">
-        <v>3.890996812668734E-09</v>
+        <v>3.89099681266874E-09</v>
       </c>
       <c r="J51">
-        <v>7.788899067454496E-09</v>
+        <v>7.78889906745451E-09</v>
       </c>
       <c r="K51">
-        <v>8.688238666986145E-05</v>
+        <v>8.68823866698613E-05</v>
       </c>
       <c r="L51">
-        <v>0.1454659134705892</v>
+        <v>0.145465913470589</v>
       </c>
       <c r="M51">
-        <v>1097.407564976863</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.1454584616385579</v>
+      </c>
+      <c r="N51">
+        <v>1097.407564976862</v>
+      </c>
+      <c r="O51">
+        <v>7.451832031158085E-06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>128.606937333944</v>
       </c>
       <c r="B52">
-        <v>347835.6635874767</v>
+        <v>347835.6635874773</v>
       </c>
       <c r="C52">
-        <v>353.9814376635276</v>
+        <v>353.981437663528</v>
       </c>
       <c r="D52">
         <v>22731.17139959595</v>
       </c>
       <c r="E52">
-        <v>7354.381920350445</v>
+        <v>7354.381920350453</v>
       </c>
       <c r="F52">
-        <v>6387.045918697717</v>
+        <v>6387.045918697723</v>
       </c>
       <c r="G52">
-        <v>7.304530984828694</v>
+        <v>7.304530984828657</v>
       </c>
       <c r="H52">
-        <v>22.58167346932994</v>
+        <v>22.58167346932996</v>
       </c>
       <c r="I52">
-        <v>4.031559254398783E-09</v>
+        <v>4.031559254398791E-09</v>
       </c>
       <c r="J52">
-        <v>8.087926922551732E-09</v>
+        <v>8.087926922551749E-09</v>
       </c>
       <c r="K52">
-        <v>8.462166491592225E-05</v>
+        <v>8.462166491592207E-05</v>
       </c>
       <c r="L52">
-        <v>0.1432219038143334</v>
+        <v>0.1432219038143332</v>
       </c>
       <c r="M52">
+        <v>0.1432141588496425</v>
+      </c>
+      <c r="N52">
         <v>1084.950838109516</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52">
+        <v>7.744964690715717E-06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>130.0605896212083</v>
       </c>
       <c r="B53">
-        <v>378680.910434119</v>
+        <v>378680.9104341206</v>
       </c>
       <c r="C53">
-        <v>383.1256667544921</v>
+        <v>383.1256667544937</v>
       </c>
       <c r="D53">
         <v>22597.81171611043</v>
       </c>
       <c r="E53">
-        <v>7302.970127809186</v>
+        <v>7302.970127809192</v>
       </c>
       <c r="F53">
-        <v>6331.328844235993</v>
+        <v>6331.328844236001</v>
       </c>
       <c r="G53">
-        <v>7.234915198958247</v>
+        <v>7.234915198958237</v>
       </c>
       <c r="H53">
-        <v>22.86525285384968</v>
+        <v>22.86525285384966</v>
       </c>
       <c r="I53">
-        <v>4.180672091486341E-09</v>
+        <v>4.180672091486337E-09</v>
       </c>
       <c r="J53">
-        <v>8.39292856833279E-09</v>
+        <v>8.392928568332791E-09</v>
       </c>
       <c r="K53">
-        <v>8.243802939072186E-05</v>
+        <v>8.243802939072184E-05</v>
       </c>
       <c r="L53">
         <v>0.1410086418767754</v>
       </c>
       <c r="M53">
-        <v>1072.428012318881</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.1410005913279996</v>
+      </c>
+      <c r="N53">
+        <v>1072.428012318882</v>
+      </c>
+      <c r="O53">
+        <v>8.050548775811942E-06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>131.5142419084725</v>
+        <v>131.5142419084726</v>
       </c>
       <c r="B54">
-        <v>411481.8419231822</v>
+        <v>411481.8419231839</v>
       </c>
       <c r="C54">
-        <v>414.0262625651194</v>
+        <v>414.026262565121</v>
       </c>
       <c r="D54">
-        <v>22463.15517321131</v>
+        <v>22463.1551732113</v>
       </c>
       <c r="E54">
-        <v>7250.225457409982</v>
+        <v>7250.225457409972</v>
       </c>
       <c r="F54">
-        <v>6274.68908973288</v>
+        <v>6274.689089732869</v>
       </c>
       <c r="G54">
-        <v>7.165833313078446</v>
+        <v>7.165833313078434</v>
       </c>
       <c r="H54">
-        <v>23.17117061886361</v>
+        <v>23.17117061886357</v>
       </c>
       <c r="I54">
-        <v>4.339010012079563E-09</v>
+        <v>4.339010012079566E-09</v>
       </c>
       <c r="J54">
-        <v>8.704054903236112E-09</v>
+        <v>8.704054903236126E-09</v>
       </c>
       <c r="K54">
-        <v>8.032592011642022E-05</v>
+        <v>8.032592011642014E-05</v>
       </c>
       <c r="L54">
-        <v>0.1388315477220278</v>
+        <v>0.1388315477220277</v>
       </c>
       <c r="M54">
+        <v>0.1388231776860432</v>
+      </c>
+      <c r="N54">
         <v>1059.834943348199</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="O54">
+        <v>8.370035984481013E-06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>132.9678941957368</v>
       </c>
       <c r="B55">
-        <v>446309.1458948096</v>
+        <v>446309.1458948127</v>
       </c>
       <c r="C55">
-        <v>446.7568873863507</v>
+        <v>446.7568873863538</v>
       </c>
       <c r="D55">
-        <v>22327.11205821926</v>
+        <v>22327.11205821925</v>
       </c>
       <c r="E55">
-        <v>7196.094499286733</v>
+        <v>7196.094499286732</v>
       </c>
       <c r="F55">
-        <v>6217.086263169386</v>
+        <v>6217.086263169384</v>
       </c>
       <c r="G55">
-        <v>7.097050941980446</v>
+        <v>7.097050941980428</v>
       </c>
       <c r="H55">
-        <v>23.49946073051942</v>
+        <v>23.49946073051944</v>
       </c>
       <c r="I55">
-        <v>4.507314977358989E-09</v>
+        <v>4.507314977359004E-09</v>
       </c>
       <c r="J55">
-        <v>9.021493239895244E-09</v>
+        <v>9.021493239895269E-09</v>
       </c>
       <c r="K55">
-        <v>7.828040316421332E-05</v>
+        <v>7.82804031642132E-05</v>
       </c>
       <c r="L55">
-        <v>0.1366935458906692</v>
+        <v>0.136693545890669</v>
       </c>
       <c r="M55">
-        <v>1047.167703250756</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.1366848408304565</v>
+      </c>
+      <c r="N55">
+        <v>1047.167703250755</v>
+      </c>
+      <c r="O55">
+        <v>8.705060212556468E-06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>134.421546483001</v>
+        <v>134.4215464830011</v>
       </c>
       <c r="B56">
-        <v>483233.7281876261</v>
+        <v>483233.7281876297</v>
       </c>
       <c r="C56">
-        <v>481.3943521640774</v>
+        <v>481.3943521640811</v>
       </c>
       <c r="D56">
         <v>22189.59212646707</v>
       </c>
       <c r="E56">
-        <v>7140.523250910778</v>
+        <v>7140.52325091077</v>
       </c>
       <c r="F56">
-        <v>6158.479811807554</v>
+        <v>6158.479811807543</v>
       </c>
       <c r="G56">
-        <v>7.028380823626006</v>
+        <v>7.028380823626023</v>
       </c>
       <c r="H56">
-        <v>23.85031145428738</v>
+        <v>23.85031145428743</v>
       </c>
       <c r="I56">
-        <v>4.686404318782466E-09</v>
+        <v>4.686404318782475E-09</v>
       </c>
       <c r="J56">
-        <v>9.345467775753352E-09</v>
+        <v>9.34546777575337E-09</v>
       </c>
       <c r="K56">
-        <v>7.62970943766679E-05</v>
+        <v>7.629709437666781E-05</v>
       </c>
       <c r="L56">
-        <v>0.1345954612815528</v>
+        <v>0.1345954612815527</v>
       </c>
       <c r="M56">
+        <v>0.1345864038333245</v>
+      </c>
+      <c r="N56">
         <v>1034.422596512652</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="O56">
+        <v>9.057448228147618E-06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>135.8751987702653</v>
+        <v>135.8751987702654</v>
       </c>
       <c r="B57">
-        <v>522326.6842151638</v>
+        <v>522326.6842151654</v>
       </c>
       <c r="C57">
-        <v>518.018951927381</v>
+        <v>518.0189519273823</v>
       </c>
       <c r="D57">
         <v>22050.50426603488</v>
@@ -2819,265 +3161,301 @@
         <v>7083.456767048235</v>
       </c>
       <c r="F57">
-        <v>6098.828729076332</v>
+        <v>6098.828729076333</v>
       </c>
       <c r="G57">
         <v>6.959675936908215</v>
       </c>
       <c r="H57">
-        <v>24.22406241905055</v>
+        <v>24.22406241905057</v>
       </c>
       <c r="I57">
-        <v>4.877179993874452E-09</v>
+        <v>4.877179993874449E-09</v>
       </c>
       <c r="J57">
         <v>9.676240055235629E-09</v>
       </c>
       <c r="K57">
-        <v>7.437209050307666E-05</v>
+        <v>7.437209050307664E-05</v>
       </c>
       <c r="L57">
         <v>0.132536452989806</v>
       </c>
       <c r="M57">
-        <v>1021.596170289767</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.1325270237590581</v>
+      </c>
+      <c r="N57">
+        <v>1021.596170289768</v>
+      </c>
+      <c r="O57">
+        <v>9.429230747844752E-06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>137.3288510575296</v>
       </c>
       <c r="B58">
-        <v>563659.2777509228</v>
+        <v>563659.2777509231</v>
       </c>
       <c r="C58">
         <v>556.7148453111924</v>
       </c>
       <c r="D58">
-        <v>21909.75616269742</v>
+        <v>21909.75616269741</v>
       </c>
       <c r="E58">
-        <v>7024.838800335263</v>
+        <v>7024.83880033526</v>
       </c>
       <c r="F58">
-        <v>6038.091257389188</v>
+        <v>6038.091257389186</v>
       </c>
       <c r="G58">
-        <v>6.890823686501061</v>
+        <v>6.890823686501048</v>
       </c>
       <c r="H58">
-        <v>24.62120409494087</v>
+        <v>24.62120409494084</v>
       </c>
       <c r="I58">
-        <v>5.080639195703985E-09</v>
+        <v>5.080639195703986E-09</v>
       </c>
       <c r="J58">
-        <v>1.001410945996087E-08</v>
+        <v>1.001410945996088E-08</v>
       </c>
       <c r="K58">
-        <v>7.250190714283908E-05</v>
+        <v>7.250190714283898E-05</v>
       </c>
       <c r="L58">
-        <v>0.1305144372282915</v>
+        <v>0.1305144372282914</v>
       </c>
       <c r="M58">
+        <v>0.1305046145743364</v>
+      </c>
+      <c r="N58">
         <v>1008.685219727383</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58">
+        <v>9.822653954975351E-06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>138.7825033447938</v>
+        <v>138.7825033447939</v>
       </c>
       <c r="B59">
-        <v>607302.9274638843</v>
+        <v>607302.9274638866</v>
       </c>
       <c r="C59">
-        <v>597.5704843640515</v>
+        <v>597.5704843640534</v>
       </c>
       <c r="D59">
         <v>21767.25396248565</v>
       </c>
       <c r="E59">
-        <v>6964.611428279099</v>
+        <v>6964.611428279095</v>
       </c>
       <c r="F59">
-        <v>5976.224582980534</v>
+        <v>5976.224582980533</v>
       </c>
       <c r="G59">
-        <v>6.821741010545083</v>
+        <v>6.821741010545101</v>
       </c>
       <c r="H59">
-        <v>25.04237967506511</v>
+        <v>25.04237967506512</v>
       </c>
       <c r="I59">
-        <v>5.297886549458379E-09</v>
+        <v>5.297886549458376E-09</v>
       </c>
       <c r="J59">
-        <v>1.035941376027791E-08</v>
+        <v>1.035941376027792E-08</v>
       </c>
       <c r="K59">
-        <v>7.068342298661306E-05</v>
+        <v>7.068342298661304E-05</v>
       </c>
       <c r="L59">
         <v>0.1285264677670162</v>
       </c>
       <c r="M59">
-        <v>995.6867891523243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.1285162275755207</v>
+      </c>
+      <c r="N59">
+        <v>995.6867891523244</v>
+      </c>
+      <c r="O59">
+        <v>1.024019149541307E-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>140.2361556320581</v>
       </c>
       <c r="B60">
-        <v>653329.20180079</v>
+        <v>653329.2018007905</v>
       </c>
       <c r="C60">
-        <v>640.6791017858019</v>
+        <v>640.679101785802</v>
       </c>
       <c r="D60">
         <v>21622.90192913307</v>
       </c>
       <c r="E60">
-        <v>6902.714662500351</v>
+        <v>6902.714662500353</v>
       </c>
       <c r="F60">
-        <v>5913.184518841957</v>
+        <v>5913.184518841958</v>
       </c>
       <c r="G60">
-        <v>6.752370284147585</v>
+        <v>6.752370284147598</v>
       </c>
       <c r="H60">
-        <v>25.48838940814673</v>
+        <v>25.48838940814681</v>
       </c>
       <c r="I60">
-        <v>5.530148176463235E-09</v>
+        <v>5.530148176463254E-09</v>
       </c>
       <c r="J60">
-        <v>1.071252975918284E-08</v>
+        <v>1.071252975918287E-08</v>
       </c>
       <c r="K60">
-        <v>6.891382991463614E-05</v>
+        <v>6.891382991463611E-05</v>
       </c>
       <c r="L60">
-        <v>0.1265690579020003</v>
+        <v>0.1265690579020002</v>
       </c>
       <c r="M60">
-        <v>982.5981697671461</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.1265583733450182</v>
+      </c>
+      <c r="N60">
+        <v>982.5981697671454</v>
+      </c>
+      <c r="O60">
+        <v>1.068455698194185E-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>141.6898079193223</v>
+        <v>141.6898079193224</v>
       </c>
       <c r="B61">
-        <v>701809.8228701726</v>
+        <v>701809.8228701736</v>
       </c>
       <c r="C61">
-        <v>686.1392638289049</v>
+        <v>686.1392638289054</v>
       </c>
       <c r="D61">
-        <v>21476.60209348427</v>
+        <v>21476.60209348426</v>
       </c>
       <c r="E61">
-        <v>6839.086035992311</v>
+        <v>6839.08603599231</v>
       </c>
       <c r="F61">
-        <v>5848.925171778181</v>
+        <v>5848.925171778176</v>
       </c>
       <c r="G61">
-        <v>6.68267590741307</v>
+        <v>6.682675907413038</v>
       </c>
       <c r="H61">
-        <v>25.9601974920213</v>
+        <v>25.96019749202133</v>
       </c>
       <c r="I61">
-        <v>5.778787963866483E-09</v>
+        <v>5.778787963866515E-09</v>
       </c>
       <c r="J61">
-        <v>1.107387405849049E-08</v>
+        <v>1.107387405849053E-08</v>
       </c>
       <c r="K61">
-        <v>6.719058856198631E-05</v>
+        <v>6.719058856198615E-05</v>
       </c>
       <c r="L61">
-        <v>0.1246384398008396</v>
+        <v>0.1246384398008393</v>
       </c>
       <c r="M61">
-        <v>969.4168943322268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.1246272810838058</v>
+      </c>
+      <c r="N61">
+        <v>969.4168943322253</v>
+      </c>
+      <c r="O61">
+        <v>1.115871703350534E-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>143.1434602065866</v>
+        <v>143.1434602065867</v>
       </c>
       <c r="B62">
-        <v>752816.6800434694</v>
+        <v>752816.6800434749</v>
       </c>
       <c r="C62">
-        <v>734.0554983379258</v>
+        <v>734.0554983379315</v>
       </c>
       <c r="D62">
-        <v>21328.25389167772</v>
+        <v>21328.2538916777</v>
       </c>
       <c r="E62">
         <v>6773.660164090693</v>
       </c>
       <c r="F62">
-        <v>5783.398589488853</v>
+        <v>5783.398589488849</v>
       </c>
       <c r="G62">
-        <v>6.612641480988655</v>
+        <v>6.612641480988677</v>
       </c>
       <c r="H62">
-        <v>26.45894170910919</v>
+        <v>26.45894170910928</v>
       </c>
       <c r="I62">
-        <v>6.045326449897639E-09</v>
+        <v>6.045326449897671E-09</v>
       </c>
       <c r="J62">
-        <v>1.144390397704986E-08</v>
+        <v>1.144390397704988E-08</v>
       </c>
       <c r="K62">
-        <v>6.551138899606316E-05</v>
+        <v>6.551138899606305E-05</v>
       </c>
       <c r="L62">
-        <v>0.1227307647950298</v>
+        <v>0.1227307647950296</v>
       </c>
       <c r="M62">
-        <v>956.1407291921888</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.1227190988901589</v>
+      </c>
+      <c r="N62">
+        <v>956.1407291921868</v>
+      </c>
+      <c r="O62">
+        <v>1.166590487076162E-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>144.5971124938509</v>
+        <v>144.597112493851</v>
       </c>
       <c r="B63">
-        <v>806421.8540502525</v>
+        <v>806421.8540502696</v>
       </c>
       <c r="C63">
-        <v>784.5390088173035</v>
+        <v>784.5390088173226</v>
       </c>
       <c r="D63">
         <v>21177.75378856147</v>
       </c>
       <c r="E63">
-        <v>6706.368274715621</v>
+        <v>6706.368274715604</v>
       </c>
       <c r="F63">
-        <v>5716.554383408533</v>
+        <v>5716.554383408522</v>
       </c>
       <c r="G63">
-        <v>6.542267484966393</v>
+        <v>6.542267484966416</v>
       </c>
       <c r="H63">
-        <v>26.98594606731598</v>
+        <v>26.98594606731594</v>
       </c>
       <c r="I63">
-        <v>6.331462823896027E-09</v>
+        <v>6.331462823896015E-09</v>
       </c>
       <c r="J63">
-        <v>1.182311865185375E-08</v>
+        <v>1.182311865185376E-08</v>
       </c>
       <c r="K63">
         <v>6.387411617560069E-05</v>
@@ -3086,74 +3464,86 @@
         <v>0.1208422523706448</v>
       </c>
       <c r="M63">
-        <v>942.7676638860643</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.1208300427361606</v>
+      </c>
+      <c r="N63">
+        <v>942.7676638860645</v>
+      </c>
+      <c r="O63">
+        <v>1.220963448416064E-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>146.0507647811152</v>
       </c>
       <c r="B64">
-        <v>862697.6524039791</v>
+        <v>862697.6524039827</v>
       </c>
       <c r="C64">
-        <v>837.7084870293211</v>
+        <v>837.7084870293248</v>
       </c>
       <c r="D64">
         <v>21024.99488233943</v>
       </c>
       <c r="E64">
-        <v>6637.137703273363</v>
+        <v>6637.137703273357</v>
       </c>
       <c r="F64">
-        <v>5648.339322806075</v>
+        <v>5648.339322806071</v>
       </c>
       <c r="G64">
-        <v>6.471569388521316</v>
+        <v>6.471569388521327</v>
       </c>
       <c r="H64">
-        <v>27.5427368069929</v>
+        <v>27.54273680699292</v>
       </c>
       <c r="I64">
-        <v>6.639100652100457E-09</v>
+        <v>6.639100652100469E-09</v>
       </c>
       <c r="J64">
-        <v>1.221206035515417E-08</v>
+        <v>1.221206035515418E-08</v>
       </c>
       <c r="K64">
-        <v>6.227681987574814E-05</v>
+        <v>6.227681987574809E-05</v>
       </c>
       <c r="L64">
-        <v>0.1189692971819731</v>
+        <v>0.118969297181973</v>
       </c>
       <c r="M64">
-        <v>929.2958984736263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.118956503466588</v>
+      </c>
+      <c r="N64">
+        <v>929.2958984736255</v>
+      </c>
+      <c r="O64">
+        <v>1.279371538506019E-05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>147.5044170683794</v>
+        <v>147.5044170683795</v>
       </c>
       <c r="B65">
-        <v>921716.6570488652</v>
+        <v>921716.6570488781</v>
       </c>
       <c r="C65">
-        <v>893.6910384572366</v>
+        <v>893.6910384572515</v>
       </c>
       <c r="D65">
         <v>20869.86648585178</v>
       </c>
       <c r="E65">
-        <v>6565.89134738578</v>
+        <v>6565.891347385758</v>
       </c>
       <c r="F65">
-        <v>5578.696895350096</v>
+        <v>5578.69689535008</v>
       </c>
       <c r="G65">
-        <v>6.400576127965379</v>
+        <v>6.400576127965357</v>
       </c>
       <c r="H65">
-        <v>28.13106225139993</v>
+        <v>28.13106225139988</v>
       </c>
       <c r="I65">
         <v>6.970378080979272E-09</v>
@@ -3162,1070 +3552,1226 @@
         <v>1.261131606425313E-08</v>
       </c>
       <c r="K65">
-        <v>6.071768877230613E-05</v>
+        <v>6.071768877230611E-05</v>
       </c>
       <c r="L65">
         <v>0.1171085433050006</v>
       </c>
       <c r="M65">
+        <v>0.1170951210370567</v>
+      </c>
+      <c r="N65">
         <v>915.7238286117743</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="O65">
+        <v>1.342226794383551E-05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>148.9580693556437</v>
       </c>
       <c r="B66">
-        <v>983551.7851634439</v>
+        <v>983551.7851634385</v>
       </c>
       <c r="C66">
-        <v>952.6232370479078</v>
+        <v>952.6232370479005</v>
       </c>
       <c r="D66">
         <v>20712.25367913339</v>
       </c>
       <c r="E66">
-        <v>6492.547076355715</v>
+        <v>6492.547076355716</v>
       </c>
       <c r="F66">
-        <v>5507.566828988894</v>
+        <v>5507.566828988895</v>
       </c>
       <c r="G66">
-        <v>6.329328900070553</v>
+        <v>6.329328900070567</v>
       </c>
       <c r="H66">
-        <v>28.75291712076617</v>
+        <v>28.75291712076616</v>
       </c>
       <c r="I66">
-        <v>7.327703448224272E-09</v>
+        <v>7.327703448224266E-09</v>
       </c>
       <c r="J66">
-        <v>1.302151932563424E-08</v>
+        <v>1.302151932563425E-08</v>
       </c>
       <c r="K66">
-        <v>5.919502838178158E-05</v>
+        <v>5.919502838178154E-05</v>
       </c>
       <c r="L66">
         <v>0.11525693390954</v>
       </c>
       <c r="M66">
-        <v>902.0500283230429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.1152428341702278</v>
+      </c>
+      <c r="N66">
+        <v>902.050028323043</v>
+      </c>
+      <c r="O66">
+        <v>1.409973931215931E-05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>150.4117216429079</v>
+        <v>150.411721642908</v>
       </c>
       <c r="B67">
-        <v>1048276.36408465</v>
+        <v>1048276.364084652</v>
       </c>
       <c r="C67">
-        <v>1014.65232799485</v>
+        <v>1014.652327994851</v>
       </c>
       <c r="D67">
         <v>20552.03682692637</v>
       </c>
       <c r="E67">
-        <v>6417.017089987143</v>
+        <v>6417.017089987134</v>
       </c>
       <c r="F67">
-        <v>5434.884569572872</v>
+        <v>5434.884569572862</v>
       </c>
       <c r="G67">
-        <v>6.257880225676121</v>
+        <v>6.257880225676128</v>
       </c>
       <c r="H67">
         <v>29.41057210671439</v>
       </c>
       <c r="I67">
-        <v>7.713797458861571E-09</v>
+        <v>7.713797458861577E-09</v>
       </c>
       <c r="J67">
-        <v>1.344335246175027E-08</v>
+        <v>1.34433524617503E-08</v>
       </c>
       <c r="K67">
-        <v>5.770724255389432E-05</v>
+        <v>5.770724255389424E-05</v>
       </c>
       <c r="L67">
-        <v>0.1134117430900741</v>
+        <v>0.113411743090074</v>
       </c>
       <c r="M67">
-        <v>888.2732303116693</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.1133969121701554</v>
+      </c>
+      <c r="N67">
+        <v>888.2732303116688</v>
+      </c>
+      <c r="O67">
+        <v>1.483091991854542E-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>151.8653739301722</v>
+        <v>151.8653739301723</v>
       </c>
       <c r="B68">
-        <v>1115964.221321377</v>
+        <v>1115964.22132138</v>
       </c>
       <c r="C68">
-        <v>1079.937599954873</v>
+        <v>1079.937599954876</v>
       </c>
       <c r="D68">
-        <v>20389.09105359233</v>
+        <v>20389.09105359232</v>
       </c>
       <c r="E68">
-        <v>6339.207221071651</v>
+        <v>6339.207221071632</v>
       </c>
       <c r="F68">
-        <v>5360.580708166865</v>
+        <v>5360.580708166849</v>
       </c>
       <c r="G68">
-        <v>6.186293245827747</v>
+        <v>6.186293245827739</v>
       </c>
       <c r="H68">
-        <v>30.10660972525476</v>
+        <v>30.10660972525471</v>
       </c>
       <c r="I68">
-        <v>8.131743375579167E-09</v>
+        <v>8.131743375579162E-09</v>
       </c>
       <c r="J68">
-        <v>1.387754917739423E-08</v>
+        <v>1.387754917739425E-08</v>
       </c>
       <c r="K68">
-        <v>5.625281821059458E-05</v>
+        <v>5.625281821059456E-05</v>
       </c>
       <c r="L68">
         <v>0.111570595088952</v>
       </c>
       <c r="M68">
+        <v>0.1115549741284338</v>
+      </c>
+      <c r="N68">
         <v>874.3923036005634</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="O68">
+        <v>1.562096051819781E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>153.3190262174365</v>
+        <v>153.3190262174366</v>
       </c>
       <c r="B69">
-        <v>1186689.790594433</v>
+        <v>1186689.790594435</v>
       </c>
       <c r="C69">
-        <v>1148.651951009817</v>
+        <v>1148.651951009818</v>
       </c>
       <c r="D69">
-        <v>20223.28566630686</v>
+        <v>20223.28566630684</v>
       </c>
       <c r="E69">
-        <v>6259.016175559733</v>
+        <v>6259.016175559726</v>
       </c>
       <c r="F69">
-        <v>5284.580351474854</v>
+        <v>5284.580351474845</v>
       </c>
       <c r="G69">
-        <v>6.114641219139452</v>
+        <v>6.114641219139451</v>
       </c>
       <c r="H69">
-        <v>30.84396774715793</v>
+        <v>30.84396774715805</v>
       </c>
       <c r="I69">
-        <v>8.585047049085391E-09</v>
+        <v>8.585047049085449E-09</v>
       </c>
       <c r="J69">
-        <v>1.432489763357962E-08</v>
+        <v>1.432489763357967E-08</v>
       </c>
       <c r="K69">
-        <v>5.483031302133339E-05</v>
+        <v>5.483031302133323E-05</v>
       </c>
       <c r="L69">
-        <v>0.1097314747556341</v>
+        <v>0.1097314747556338</v>
       </c>
       <c r="M69">
-        <v>860.4062281836598</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.1097149993658647</v>
+      </c>
+      <c r="N69">
+        <v>860.4062281836582</v>
+      </c>
+      <c r="O69">
+        <v>1.647538976916502E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>154.7726785047007</v>
+        <v>154.7726785047008</v>
       </c>
       <c r="B70">
-        <v>1260528.23475623</v>
+        <v>1260528.234756232</v>
       </c>
       <c r="C70">
-        <v>1220.983675871383</v>
+        <v>1220.983675871384</v>
       </c>
       <c r="D70">
-        <v>20054.48351543027</v>
+        <v>20054.48351543026</v>
       </c>
       <c r="E70">
-        <v>6176.334704196121</v>
+        <v>6176.334704196111</v>
       </c>
       <c r="F70">
-        <v>5206.802428249776</v>
+        <v>5206.802428249768</v>
       </c>
       <c r="G70">
-        <v>6.043007194812943</v>
+        <v>6.043007194812918</v>
       </c>
       <c r="H70">
-        <v>31.62599186361167</v>
+        <v>31.6259918636116</v>
       </c>
       <c r="I70">
-        <v>9.07770910438263E-09</v>
+        <v>9.077709104382631E-09</v>
       </c>
       <c r="J70">
-        <v>1.478624407082378E-08</v>
+        <v>1.47862440708238E-08</v>
       </c>
       <c r="K70">
-        <v>5.343834569881583E-05</v>
+        <v>5.343834569881578E-05</v>
       </c>
       <c r="L70">
-        <v>0.1078927318963381</v>
+        <v>0.107892731896338</v>
       </c>
       <c r="M70">
+        <v>0.1078753317640399</v>
+      </c>
+      <c r="N70">
         <v>846.3140663122671</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="O70">
+        <v>1.740013229806621E-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>156.226330791965</v>
+        <v>156.2263307919651</v>
       </c>
       <c r="B71">
-        <v>1337555.586284658</v>
+        <v>1337555.58628466</v>
       </c>
       <c r="C71">
-        <v>1297.138505220513</v>
+        <v>1297.138505220514</v>
       </c>
       <c r="D71">
-        <v>19882.54027841476</v>
+        <v>19882.54027841475</v>
       </c>
       <c r="E71">
-        <v>6091.044699282163</v>
+        <v>6091.044699282172</v>
       </c>
       <c r="F71">
-        <v>5127.158924028828</v>
+        <v>5127.158924028834</v>
       </c>
       <c r="G71">
-        <v>5.97148384089712</v>
+        <v>5.971483840897118</v>
       </c>
       <c r="H71">
-        <v>32.45649970889583</v>
+        <v>32.45649970889591</v>
       </c>
       <c r="I71">
-        <v>9.614312241176083E-09</v>
+        <v>9.614312241176127E-09</v>
       </c>
       <c r="J71">
-        <v>1.526249708144282E-08</v>
+        <v>1.526249708144284E-08</v>
       </c>
       <c r="K71">
-        <v>5.207558859309E-05</v>
+        <v>5.207558859308992E-05</v>
       </c>
       <c r="L71">
-        <v>0.1060530812030783</v>
+        <v>0.1060530812030782</v>
       </c>
       <c r="M71">
-        <v>832.114929960591</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.1060346796758682</v>
+      </c>
+      <c r="N71">
+        <v>832.1149299605898</v>
+      </c>
+      <c r="O71">
+        <v>1.840152720994044E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>157.6799830792293</v>
       </c>
       <c r="B72">
-        <v>1417848.905779479</v>
+        <v>1417848.905779478</v>
       </c>
       <c r="C72">
-        <v>1377.341931549332</v>
+        <v>1377.34193154933</v>
       </c>
       <c r="D72">
-        <v>19707.30365036953</v>
+        <v>19707.30365036952</v>
       </c>
       <c r="E72">
-        <v>6003.018210338802</v>
+        <v>6003.018210338792</v>
       </c>
       <c r="F72">
-        <v>5045.554036087273</v>
+        <v>5045.554036087261</v>
       </c>
       <c r="G72">
-        <v>5.900173412058073</v>
+        <v>5.900173412058075</v>
       </c>
       <c r="H72">
-        <v>33.33985896642041</v>
+        <v>33.33985896642042</v>
       </c>
       <c r="I72">
-        <v>1.020012745523323E-08</v>
+        <v>1.020012745523326E-08</v>
       </c>
       <c r="J72">
-        <v>1.575463265298149E-08</v>
+        <v>1.575463265298153E-08</v>
       </c>
       <c r="K72">
-        <v>5.074076225467728E-05</v>
+        <v>5.074076225467722E-05</v>
       </c>
       <c r="L72">
-        <v>0.1042115987003048</v>
+        <v>0.1042115987003047</v>
       </c>
       <c r="M72">
-        <v>817.8079439439928</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.1041921123533155</v>
+      </c>
+      <c r="N72">
+        <v>817.8079439439919</v>
+      </c>
+      <c r="O72">
+        <v>1.948634698915413E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>159.1336353664935</v>
+        <v>159.1336353664936</v>
       </c>
       <c r="B73">
-        <v>1501486.458474219</v>
+        <v>1501486.458474211</v>
       </c>
       <c r="C73">
-        <v>1461.841859212393</v>
+        <v>1461.841859212381</v>
       </c>
       <c r="D73">
         <v>19528.6124202505</v>
       </c>
       <c r="E73">
-        <v>5912.116372923329</v>
+        <v>5912.116372923332</v>
       </c>
       <c r="F73">
-        <v>4961.883240241164</v>
+        <v>4961.883240241165</v>
       </c>
       <c r="G73">
-        <v>5.829187845443384</v>
+        <v>5.829187845443395</v>
       </c>
       <c r="H73">
-        <v>34.28108307973898</v>
+        <v>34.28108307973893</v>
       </c>
       <c r="I73">
-        <v>1.08412441180195E-08</v>
+        <v>1.084124411801949E-08</v>
       </c>
       <c r="J73">
-        <v>1.626370013361654E-08</v>
+        <v>1.626370013361655E-08</v>
       </c>
       <c r="K73">
-        <v>4.94326316294456E-05</v>
+        <v>4.943263162944558E-05</v>
       </c>
       <c r="L73">
         <v>0.1023677150868556</v>
       </c>
       <c r="M73">
+        <v>0.1023470532701232</v>
+      </c>
+      <c r="N73">
         <v>803.392204093285</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="O73">
+        <v>2.066181673243012E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>160.5872876537578</v>
+        <v>160.5872876537579</v>
       </c>
       <c r="B74">
-        <v>1588547.908147873</v>
+        <v>1588547.908147849</v>
       </c>
       <c r="C74">
-        <v>1550.911619217102</v>
+        <v>1550.911619217066</v>
       </c>
       <c r="D74">
-        <v>19346.2954062842</v>
+        <v>19346.29540628417</v>
       </c>
       <c r="E74">
-        <v>5818.188245915541</v>
+        <v>5818.188245915558</v>
       </c>
       <c r="F74">
-        <v>4876.032261209897</v>
+        <v>4876.0322612099</v>
       </c>
       <c r="G74">
-        <v>5.75864897732988</v>
+        <v>5.758648977329889</v>
       </c>
       <c r="H74">
-        <v>35.2859491460713</v>
+        <v>35.2859491460716</v>
       </c>
       <c r="I74">
-        <v>1.154473037146774E-08</v>
+        <v>1.154473037146789E-08</v>
       </c>
       <c r="J74">
-        <v>1.679082930719272E-08</v>
+        <v>1.679082930719279E-08</v>
       </c>
       <c r="K74">
-        <v>4.81500035387505E-05</v>
+        <v>4.81500035387503E-05</v>
       </c>
       <c r="L74">
-        <v>0.1005212059519231</v>
+        <v>0.1005212059519228</v>
       </c>
       <c r="M74">
-        <v>788.8667298176355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.1004992703182706</v>
+      </c>
+      <c r="N74">
+        <v>788.8667298176324</v>
+      </c>
+      <c r="O74">
+        <v>2.193563365225663E-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>162.040939941022</v>
+        <v>162.0409399410221</v>
       </c>
       <c r="B75">
-        <v>1679114.526899381</v>
+        <v>1679114.526899396</v>
       </c>
       <c r="C75">
-        <v>1644.853390999802</v>
+        <v>1644.85339099982</v>
       </c>
       <c r="D75">
-        <v>19160.17021728754</v>
+        <v>19160.17021728752</v>
       </c>
       <c r="E75">
-        <v>5721.069554512672</v>
+        <v>5721.069554512665</v>
       </c>
       <c r="F75">
-        <v>4787.875938893418</v>
+        <v>4787.875938893412</v>
       </c>
       <c r="G75">
-        <v>5.688688877247743</v>
+        <v>5.688688877247735</v>
       </c>
       <c r="H75">
-        <v>36.36114398559872</v>
+        <v>36.36114398559894</v>
       </c>
       <c r="I75">
-        <v>1.231883235660353E-08</v>
+        <v>1.231883235660364E-08</v>
       </c>
       <c r="J75">
-        <v>1.733723881306109E-08</v>
+        <v>1.733723881306116E-08</v>
       </c>
       <c r="K75">
-        <v>4.689172508749604E-05</v>
+        <v>4.689172508749588E-05</v>
       </c>
       <c r="L75">
-        <v>0.09867217857809768</v>
+        <v>0.0986721785780975</v>
       </c>
       <c r="M75">
-        <v>774.2304103148864</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.0986488625913068</v>
+      </c>
+      <c r="N75">
+        <v>774.2304103148848</v>
+      </c>
+      <c r="O75">
+        <v>2.331598679070533E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>163.4945922282863</v>
+        <v>163.4945922282864</v>
       </c>
       <c r="B76">
-        <v>1773269.41791567</v>
+        <v>1773269.417915691</v>
       </c>
       <c r="C76">
-        <v>1744.002073124191</v>
+        <v>1744.00207312422</v>
       </c>
       <c r="D76">
-        <v>18970.04179747264</v>
+        <v>18970.04179747263</v>
       </c>
       <c r="E76">
-        <v>5620.581339334207</v>
+        <v>5620.581339334176</v>
       </c>
       <c r="F76">
-        <v>4697.276984441203</v>
+        <v>4697.27698444118</v>
       </c>
       <c r="G76">
-        <v>5.619450300401802</v>
+        <v>5.619450300401775</v>
       </c>
       <c r="H76">
         <v>37.5144462977831</v>
       </c>
       <c r="I76">
-        <v>1.317322362099686E-08</v>
+        <v>1.317322362099688E-08</v>
       </c>
       <c r="J76">
-        <v>1.790424620763655E-08</v>
+        <v>1.790424620763659E-08</v>
       </c>
       <c r="K76">
-        <v>4.565668262942536E-05</v>
+        <v>4.565668262942527E-05</v>
       </c>
       <c r="L76">
-        <v>0.09682105488692501</v>
+        <v>0.0968210548869249</v>
       </c>
       <c r="M76">
+        <v>0.09679624331003273</v>
+      </c>
+      <c r="N76">
         <v>759.4819436056641</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="O76">
+        <v>2.481157689217303E-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>164.9482445155506</v>
       </c>
       <c r="B77">
-        <v>1871097.746470529</v>
+        <v>1871097.746470564</v>
       </c>
       <c r="C77">
-        <v>1848.729641152024</v>
+        <v>1848.729641152074</v>
       </c>
       <c r="D77">
         <v>18775.70070037493</v>
       </c>
       <c r="E77">
-        <v>5516.528516896435</v>
+        <v>5516.5285168964</v>
       </c>
       <c r="F77">
-        <v>4604.084622805136</v>
+        <v>4604.084622805114</v>
       </c>
       <c r="G77">
-        <v>5.551087263653032</v>
+        <v>5.55108726365303</v>
       </c>
       <c r="H77">
-        <v>38.75495544348196</v>
+        <v>38.7549554434818</v>
       </c>
       <c r="I77">
-        <v>1.411931996644434E-08</v>
+        <v>1.411931996644424E-08</v>
       </c>
       <c r="J77">
-        <v>1.849328004553649E-08</v>
+        <v>1.849328004553646E-08</v>
       </c>
       <c r="K77">
-        <v>4.44438009019932E-05</v>
+        <v>4.444380090199327E-05</v>
       </c>
       <c r="L77">
-        <v>0.09496855001012204</v>
+        <v>0.09496855001012215</v>
       </c>
       <c r="M77">
-        <v>744.6197674666741</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.09494211837372034</v>
+      </c>
+      <c r="N77">
+        <v>744.6197674666761</v>
+      </c>
+      <c r="O77">
+        <v>2.643163640180899E-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>166.4018968028148</v>
+        <v>166.4018968028149</v>
       </c>
       <c r="B78">
-        <v>1972686.971732229</v>
+        <v>1972686.971732236</v>
       </c>
       <c r="C78">
-        <v>1959.450021939796</v>
+        <v>1959.450021939804</v>
       </c>
       <c r="D78">
-        <v>18576.92102165766</v>
+        <v>18576.92102165764</v>
       </c>
       <c r="E78">
-        <v>5408.698363795514</v>
+        <v>5408.698363795502</v>
       </c>
       <c r="F78">
-        <v>4508.133123101937</v>
+        <v>4508.133123101922</v>
       </c>
       <c r="G78">
-        <v>5.483765755420848</v>
+        <v>5.483765755420854</v>
       </c>
       <c r="H78">
-        <v>40.09338103455318</v>
+        <v>40.09338103455333</v>
       </c>
       <c r="I78">
-        <v>1.517068048942494E-08</v>
+        <v>1.517068048942505E-08</v>
       </c>
       <c r="J78">
-        <v>1.910589446526255E-08</v>
+        <v>1.910589446526264E-08</v>
       </c>
       <c r="K78">
-        <v>4.325204192101875E-05</v>
+        <v>4.325204192101864E-05</v>
       </c>
       <c r="L78">
-        <v>0.09311564596191799</v>
+        <v>0.09311564596191779</v>
       </c>
       <c r="M78">
-        <v>729.6419812025998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.09308746001232963</v>
+      </c>
+      <c r="N78">
+        <v>729.6419812025981</v>
+      </c>
+      <c r="O78">
+        <v>2.818594958815521E-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>167.8555490900791</v>
+        <v>167.8555490900792</v>
       </c>
       <c r="B79">
-        <v>2078127.068265637</v>
+        <v>2078127.068265669</v>
       </c>
       <c r="C79">
-        <v>2076.624496673994</v>
+        <v>2076.624496674041</v>
       </c>
       <c r="D79">
         <v>18373.45789919196</v>
       </c>
       <c r="E79">
-        <v>5296.858946724486</v>
+        <v>5296.858946724458</v>
       </c>
       <c r="F79">
-        <v>4409.240225156338</v>
+        <v>4409.240225156322</v>
       </c>
       <c r="G79">
-        <v>5.417664596018551</v>
+        <v>5.417664596018555</v>
       </c>
       <c r="H79">
-        <v>41.54241262951192</v>
+        <v>41.54241262951179</v>
       </c>
       <c r="I79">
-        <v>1.634352336426848E-08</v>
+        <v>1.634352336426842E-08</v>
       </c>
       <c r="J79">
         <v>1.974378690764298E-08</v>
       </c>
       <c r="K79">
-        <v>4.2080403195594E-05</v>
+        <v>4.208040319559401E-05</v>
       </c>
       <c r="L79">
         <v>0.09126355992436835</v>
       </c>
       <c r="M79">
-        <v>714.546256996518</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.09123347505152883</v>
+      </c>
+      <c r="N79">
+        <v>714.5462569965188</v>
+      </c>
+      <c r="O79">
+        <v>3.00848728395263E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>169.3092013773434</v>
+        <v>169.3092013773435</v>
       </c>
       <c r="B80">
-        <v>2187510.721063072</v>
+        <v>2187510.721063075</v>
       </c>
       <c r="C80">
-        <v>2200.767616723483</v>
+        <v>2200.767616723482</v>
       </c>
       <c r="D80">
-        <v>18165.04445976054</v>
+        <v>18165.04445976052</v>
       </c>
       <c r="E80">
-        <v>5180.757533163335</v>
+        <v>5180.757533163336</v>
       </c>
       <c r="F80">
-        <v>4307.205480596932</v>
+        <v>4307.205480596931</v>
       </c>
       <c r="G80">
-        <v>5.352976472774662</v>
+        <v>5.352976472774644</v>
       </c>
       <c r="H80">
-        <v>43.11719612304587</v>
+        <v>43.1171961230461</v>
       </c>
       <c r="I80">
-        <v>1.765739614486322E-08</v>
+        <v>1.765739614486338E-08</v>
       </c>
       <c r="J80">
-        <v>2.040881978915874E-08</v>
+        <v>2.04088197891588E-08</v>
       </c>
       <c r="K80">
-        <v>4.092791478297595E-05</v>
+        <v>4.092791478297588E-05</v>
       </c>
       <c r="L80">
-        <v>0.08941370671609045</v>
+        <v>0.08941370671609034</v>
       </c>
       <c r="M80">
-        <v>699.3297392703556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.08938156736082904</v>
+      </c>
+      <c r="N80">
+        <v>699.329739270354</v>
+      </c>
+      <c r="O80">
+        <v>3.213935526129227E-05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>170.7628536646076</v>
+        <v>170.7628536646077</v>
       </c>
       <c r="B81">
-        <v>2300933.471127858</v>
+        <v>2300933.471127875</v>
       </c>
       <c r="C81">
-        <v>2332.453573026921</v>
+        <v>2332.453573026945</v>
       </c>
       <c r="D81">
         <v>17951.38805167814</v>
       </c>
       <c r="E81">
-        <v>5060.119032697562</v>
+        <v>5060.119032697564</v>
       </c>
       <c r="F81">
-        <v>4201.808540027458</v>
+        <v>4201.808540027463</v>
       </c>
       <c r="G81">
-        <v>5.289909184719785</v>
+        <v>5.289909184719781</v>
       </c>
       <c r="H81">
-        <v>44.83595396172561</v>
+        <v>44.83595396172564</v>
       </c>
       <c r="I81">
-        <v>1.913605676714273E-08</v>
+        <v>1.913605676714278E-08</v>
       </c>
       <c r="J81">
-        <v>2.11030472182615E-08</v>
+        <v>2.110304721826154E-08</v>
       </c>
       <c r="K81">
-        <v>3.979363464617066E-05</v>
+        <v>3.979363464617062E-05</v>
       </c>
       <c r="L81">
-        <v>0.0875676550704016</v>
+        <v>0.08756765507040154</v>
       </c>
       <c r="M81">
-        <v>683.9889299965258</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.0875332941105849</v>
+      </c>
+      <c r="N81">
+        <v>683.9889299965255</v>
+      </c>
+      <c r="O81">
+        <v>3.436095981664007E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>172.2165059518719</v>
+        <v>172.216505951872</v>
       </c>
       <c r="B82">
-        <v>2418493.779639588</v>
+        <v>2418493.779639587</v>
       </c>
       <c r="C82">
-        <v>2472.322897840698</v>
+        <v>2472.322897840691</v>
       </c>
       <c r="D82">
-        <v>17732.16554659195</v>
+        <v>17732.16554659192</v>
       </c>
       <c r="E82">
-        <v>4934.644534215723</v>
+        <v>4934.644534215729</v>
       </c>
       <c r="F82">
-        <v>4092.80743330385</v>
+        <v>4092.807433303854</v>
       </c>
       <c r="G82">
-        <v>5.22868714598076</v>
+        <v>5.228687145980749</v>
       </c>
       <c r="H82">
-        <v>46.7208018290918</v>
+        <v>46.72080182909225</v>
       </c>
       <c r="I82">
-        <v>2.080864580906858E-08</v>
+        <v>2.080864580906888E-08</v>
       </c>
       <c r="J82">
-        <v>2.182874821300516E-08</v>
+        <v>2.182874821300525E-08</v>
       </c>
       <c r="K82">
-        <v>3.867664169565131E-05</v>
+        <v>3.867664169565117E-05</v>
       </c>
       <c r="L82">
-        <v>0.08572707737053993</v>
+        <v>0.08572707737053967</v>
       </c>
       <c r="M82">
-        <v>668.5195571152652</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.08569031548511671</v>
+      </c>
+      <c r="N82">
+        <v>668.5195571152631</v>
+      </c>
+      <c r="O82">
+        <v>3.676188542295726E-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>173.6701582391362</v>
       </c>
       <c r="B83">
-        <v>2540292.967164959</v>
+        <v>2540292.967164976</v>
       </c>
       <c r="C83">
-        <v>2621.08929645854</v>
+        <v>2621.089296458566</v>
       </c>
       <c r="D83">
-        <v>17507.01741415253</v>
+        <v>17507.01741415254</v>
       </c>
       <c r="E83">
-        <v>4804.010014059651</v>
+        <v>4804.010014059653</v>
       </c>
       <c r="F83">
-        <v>3979.93690478923</v>
+        <v>3979.936904789236</v>
       </c>
       <c r="G83">
-        <v>5.169553217447963</v>
+        <v>5.169553217447961</v>
       </c>
       <c r="H83">
-        <v>48.79883767988157</v>
+        <v>48.7988376798813</v>
       </c>
       <c r="I83">
-        <v>2.271126743489384E-08</v>
+        <v>2.271126743489366E-08</v>
       </c>
       <c r="J83">
-        <v>2.258846840184115E-08</v>
+        <v>2.258846840184114E-08</v>
       </c>
       <c r="K83">
-        <v>3.75760257788982E-05</v>
+        <v>3.757602577889825E-05</v>
       </c>
       <c r="L83">
-        <v>0.08389369243849056</v>
+        <v>0.08389369243849062</v>
       </c>
       <c r="M83">
-        <v>652.9164219521385</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.08385433744782793</v>
+      </c>
+      <c r="N83">
+        <v>652.9164219521398</v>
+      </c>
+      <c r="O83">
+        <v>3.935499066269776E-05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>175.1238105264004</v>
+        <v>175.1238105264005</v>
       </c>
       <c r="B84">
-        <v>2666434.970064854</v>
+        <v>2666434.970064856</v>
       </c>
       <c r="C84">
         <v>2779.546312487227</v>
       </c>
       <c r="D84">
-        <v>17275.54015842714</v>
+        <v>17275.54015842712</v>
       </c>
       <c r="E84">
-        <v>4667.865282451353</v>
+        <v>4667.86528245136</v>
       </c>
       <c r="F84">
-        <v>3862.906872086116</v>
+        <v>3862.906872086123</v>
       </c>
       <c r="G84">
-        <v>5.112770965990142</v>
+        <v>5.112770965990129</v>
       </c>
       <c r="H84">
-        <v>51.103614515796</v>
+        <v>51.10361451579621</v>
       </c>
       <c r="I84">
-        <v>2.488915333739072E-08</v>
+        <v>2.488915333739093E-08</v>
       </c>
       <c r="J84">
-        <v>2.338507294250704E-08</v>
+        <v>2.338507294250709E-08</v>
       </c>
       <c r="K84">
-        <v>3.649087370829249E-05</v>
+        <v>3.649087370829241E-05</v>
       </c>
       <c r="L84">
-        <v>0.08206920079886627</v>
+        <v>0.08206920079886612</v>
       </c>
       <c r="M84">
-        <v>637.173219526187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.08202704697873703</v>
+      </c>
+      <c r="N84">
+        <v>637.1732195261858</v>
+      </c>
+      <c r="O84">
+        <v>4.215382012909876E-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>176.5774628136647</v>
+        <v>176.5774628136648</v>
       </c>
       <c r="B85">
-        <v>2797025.839522808</v>
+        <v>2797025.83952279</v>
       </c>
       <c r="C85">
-        <v>2948.573446238635</v>
+        <v>2948.573446238593</v>
       </c>
       <c r="D85">
         <v>17037.27653651474</v>
       </c>
       <c r="E85">
-        <v>4525.833186724975</v>
+        <v>4525.833186724989</v>
       </c>
       <c r="F85">
-        <v>3741.401059148224</v>
+        <v>3741.401059148232</v>
       </c>
       <c r="G85">
-        <v>5.058627494671777</v>
+        <v>5.05862749467178</v>
       </c>
       <c r="H85">
-        <v>53.67716377218794</v>
+        <v>53.67716377218787</v>
       </c>
       <c r="I85">
-        <v>2.739967370209015E-08</v>
+        <v>2.739967370209016E-08</v>
       </c>
       <c r="J85">
-        <v>2.422181449715168E-08</v>
+        <v>2.42218144971517E-08</v>
       </c>
       <c r="K85">
-        <v>3.542025015991442E-05</v>
+        <v>3.542025015991438E-05</v>
       </c>
       <c r="L85">
-        <v>0.08025521147135686</v>
+        <v>0.08025521147135681</v>
       </c>
       <c r="M85">
-        <v>621.28232248082</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.08021003883639835</v>
+      </c>
+      <c r="N85">
+        <v>621.2823224808197</v>
+      </c>
+      <c r="O85">
+        <v>4.517263495845908E-05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>178.0311151009289</v>
+        <v>178.0311151009291</v>
       </c>
       <c r="B86">
-        <v>2932172.890859561</v>
+        <v>2932172.89085959</v>
       </c>
       <c r="C86">
-        <v>3129.141326776351</v>
+        <v>3129.141326776406</v>
       </c>
       <c r="D86">
-        <v>16791.70272857531</v>
+        <v>16791.7027285753</v>
       </c>
       <c r="E86">
-        <v>4377.508957767702</v>
+        <v>4377.508957767674</v>
       </c>
       <c r="F86">
-        <v>3615.075782086707</v>
+        <v>3615.075782086687</v>
       </c>
       <c r="G86">
-        <v>5.007437054281507</v>
+        <v>5.007437054281525</v>
       </c>
       <c r="H86">
-        <v>56.57282496748733</v>
+        <v>56.57282496748747</v>
       </c>
       <c r="I86">
-        <v>3.031660415767258E-08</v>
+        <v>3.031660415767275E-08</v>
       </c>
       <c r="J86">
-        <v>2.510242174959426E-08</v>
+        <v>2.510242174959431E-08</v>
       </c>
       <c r="K86">
-        <v>3.436317188675338E-05</v>
+        <v>3.436317188675331E-05</v>
       </c>
       <c r="L86">
-        <v>0.07845315868782808</v>
+        <v>0.07845315868782797</v>
       </c>
       <c r="M86">
-        <v>605.2345144400348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.07840473223793744</v>
+      </c>
+      <c r="N86">
+        <v>605.2345144400336</v>
+      </c>
+      <c r="O86">
+        <v>4.842644989053772E-05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>179.4847673881932</v>
+        <v>179.4847673881933</v>
       </c>
       <c r="B87">
-        <v>3071983.395176927</v>
+        <v>3071983.395176915</v>
       </c>
       <c r="C87">
-        <v>3322.315696629368</v>
+        <v>3322.315696629333</v>
       </c>
       <c r="D87">
-        <v>16538.21124688599</v>
+        <v>16538.21124688597</v>
       </c>
       <c r="E87">
-        <v>4222.459299484669</v>
+        <v>4222.459299484676</v>
       </c>
       <c r="F87">
-        <v>3483.558683761861</v>
+        <v>3483.558683761864</v>
       </c>
       <c r="G87">
-        <v>4.959545749329179</v>
+        <v>4.959545749329162</v>
       </c>
       <c r="H87">
-        <v>59.85928319975641</v>
+        <v>59.85928319975653</v>
       </c>
       <c r="I87">
-        <v>3.373629824371602E-08</v>
+        <v>3.373629824371629E-08</v>
       </c>
       <c r="J87">
-        <v>2.603121646321424E-08</v>
+        <v>2.603121646321435E-08</v>
       </c>
       <c r="K87">
-        <v>3.331857309568622E-05</v>
+        <v>3.331857309568612E-05</v>
       </c>
       <c r="L87">
-        <v>0.07666420584134791</v>
+        <v>0.07666420584134771</v>
       </c>
       <c r="M87">
-        <v>589.018650960811</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.07661227476095973</v>
+      </c>
+      <c r="N87">
+        <v>589.0186509608096</v>
+      </c>
+      <c r="O87">
+        <v>5.193108038797394E-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>180.9384196754575</v>
+        <v>180.9384196754576</v>
       </c>
       <c r="B88">
-        <v>3216562.697877843</v>
+        <v>3216562.697877876</v>
       </c>
       <c r="C88">
-        <v>3529.26050993271</v>
+        <v>3529.260509932778</v>
       </c>
       <c r="D88">
-        <v>16276.08778052263</v>
+        <v>16276.08778052261</v>
       </c>
       <c r="E88">
-        <v>4060.220268603793</v>
+        <v>4060.220268603752</v>
       </c>
       <c r="F88">
-        <v>3346.446831322399</v>
+        <v>3346.44683132237</v>
       </c>
       <c r="G88">
-        <v>4.915337812334139</v>
+        <v>4.915337812334118</v>
       </c>
       <c r="H88">
-        <v>63.62646320067077</v>
+        <v>63.626463200671</v>
       </c>
       <c r="I88">
-        <v>3.778682643240508E-08</v>
+        <v>3.778682643240529E-08</v>
       </c>
       <c r="J88">
-        <v>2.701327099619192E-08</v>
+        <v>2.701327099619198E-08</v>
       </c>
       <c r="K88">
-        <v>3.228525891676861E-05</v>
+        <v>3.228525891676855E-05</v>
       </c>
       <c r="L88">
-        <v>0.07488913223484268</v>
+        <v>0.07488913223484257</v>
       </c>
       <c r="M88">
-        <v>572.6212144987569</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.0748334290296802</v>
+      </c>
+      <c r="N88">
+        <v>572.6212144987564</v>
+      </c>
+      <c r="O88">
+        <v>5.570320516237437E-05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>182.3920719627217</v>
+        <v>182.3920719627218</v>
       </c>
       <c r="B89">
-        <v>3366011.658700051</v>
+        <v>3366011.658700042</v>
       </c>
       <c r="C89">
-        <v>3751.241710171083</v>
+        <v>3751.241710171054</v>
       </c>
       <c r="D89">
-        <v>16004.47923570007</v>
+        <v>16004.47923570004</v>
       </c>
       <c r="E89">
-        <v>3890.292012649281</v>
+        <v>3890.292012649297</v>
       </c>
       <c r="F89">
-        <v>3203.30287205329</v>
+        <v>3203.302872053301</v>
       </c>
       <c r="G89">
-        <v>4.875244175407106</v>
+        <v>4.875244175407071</v>
       </c>
       <c r="H89">
-        <v>67.99436141524123</v>
+        <v>67.99436141524207</v>
       </c>
       <c r="I89">
-        <v>4.26418709761528E-08</v>
+        <v>4.264187097615356E-08</v>
       </c>
       <c r="J89">
-        <v>2.805462445649434E-08</v>
+        <v>2.805462445649443E-08</v>
       </c>
       <c r="K89">
-        <v>3.126184243680246E-05</v>
+        <v>3.126184243680237E-05</v>
       </c>
       <c r="L89">
-        <v>0.07312819544355927</v>
+        <v>0.07312819544355909</v>
       </c>
       <c r="M89">
-        <v>556.0257116430598</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.07306843499127566</v>
+      </c>
+      <c r="N89">
+        <v>556.025711643058</v>
+      </c>
+      <c r="O89">
+        <v>5.976045228343049E-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>183.845724249986</v>
+        <v>183.8457242499861</v>
       </c>
       <c r="B90">
-        <v>3520423.349242502</v>
+        <v>3520423.349242464</v>
       </c>
       <c r="C90">
-        <v>3989.635755154773</v>
+        <v>3989.635755154672</v>
       </c>
       <c r="D90">
-        <v>15722.34870794163</v>
+        <v>15722.3487079416</v>
       </c>
       <c r="E90">
-        <v>3712.126812607857</v>
+        <v>3712.126812607899</v>
       </c>
       <c r="F90">
-        <v>3053.646694397106</v>
+        <v>3053.646694397135</v>
       </c>
       <c r="G90">
-        <v>4.839754481003188</v>
+        <v>4.839754481003199</v>
       </c>
       <c r="H90">
-        <v>73.12668477469236</v>
+        <v>73.1266847746934</v>
       </c>
       <c r="I90">
-        <v>4.854250530344914E-08</v>
+        <v>4.854250530345016E-08</v>
       </c>
       <c r="J90">
-        <v>2.916258598594701E-08</v>
+        <v>2.916258598594714E-08</v>
       </c>
       <c r="K90">
-        <v>3.024665840765973E-05</v>
+        <v>3.024665840765961E-05</v>
       </c>
       <c r="L90">
-        <v>0.07138095771173059</v>
+        <v>0.07138095771173039</v>
       </c>
       <c r="M90">
-        <v>539.211832575341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.07131683619018375</v>
+      </c>
+      <c r="N90">
+        <v>539.2118325753385</v>
+      </c>
+      <c r="O90">
+        <v>6.41215215466426E-05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>185.2993765372503</v>
+        <v>185.2993765372504</v>
       </c>
       <c r="B91">
-        <v>3679879.029608168</v>
+        <v>3679879.029608175</v>
       </c>
       <c r="C91">
-        <v>4245.951389761541</v>
+        <v>4245.951389761542</v>
       </c>
       <c r="D91">
         <v>15428.41055339228</v>
       </c>
       <c r="E91">
-        <v>3525.104343826732</v>
+        <v>3525.10434382673</v>
       </c>
       <c r="F91">
         <v>2896.938008175281</v>
       </c>
       <c r="G91">
-        <v>4.809434359656989</v>
+        <v>4.809434359656977</v>
       </c>
       <c r="H91">
-        <v>79.25266095969775</v>
+        <v>79.2526609596971</v>
       </c>
       <c r="I91">
-        <v>5.583256223032221E-08</v>
+        <v>5.583256223032169E-08</v>
       </c>
       <c r="J91">
-        <v>3.034617121436307E-08</v>
+        <v>3.034617121436308E-08</v>
       </c>
       <c r="K91">
         <v>2.923764275513804E-05</v>
@@ -4234,417 +4780,483 @@
         <v>0.06964605757370529</v>
       </c>
       <c r="M91">
-        <v>522.1542469758876</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.06957725121054338</v>
+      </c>
+      <c r="N91">
+        <v>522.1542469758887</v>
+      </c>
+      <c r="O91">
+        <v>6.880636316190527E-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>186.7530288245145</v>
+        <v>186.7530288245146</v>
       </c>
       <c r="B92">
-        <v>3844443.565936507</v>
+        <v>3844443.565936487</v>
       </c>
       <c r="C92">
-        <v>4521.880450977162</v>
+        <v>4521.880450977076</v>
       </c>
       <c r="D92">
-        <v>15121.03421244397</v>
+        <v>15121.03421244391</v>
       </c>
       <c r="E92">
-        <v>3328.484246777073</v>
+        <v>3328.484246777087</v>
       </c>
       <c r="F92">
-        <v>2732.542087423306</v>
+        <v>2732.542087423309</v>
       </c>
       <c r="G92">
-        <v>4.78495098141143</v>
+        <v>4.784950981411445</v>
       </c>
       <c r="H92">
-        <v>86.70337726433291</v>
+        <v>86.70337726433553</v>
       </c>
       <c r="I92">
-        <v>6.501851007743517E-08</v>
+        <v>6.501851007743793E-08</v>
       </c>
       <c r="J92">
-        <v>3.161674905178284E-08</v>
+        <v>3.161674905178306E-08</v>
       </c>
       <c r="K92">
-        <v>2.823215999065238E-05</v>
+        <v>2.823215999065218E-05</v>
       </c>
       <c r="L92">
-        <v>0.06792089550936387</v>
+        <v>0.06792089550936352</v>
       </c>
       <c r="M92">
-        <v>504.8208333732653</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.06784705906392556</v>
+      </c>
+      <c r="N92">
+        <v>504.820833373261</v>
+      </c>
+      <c r="O92">
+        <v>7.383644543796183E-05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>188.2066811117788</v>
+        <v>188.2066811117789</v>
       </c>
       <c r="B93">
-        <v>4014160.635475317</v>
+        <v>4014160.635475404</v>
       </c>
       <c r="C93">
-        <v>4819.40501529484</v>
+        <v>4819.405015295115</v>
       </c>
       <c r="D93">
-        <v>14798.09706957148</v>
+        <v>14798.09706957154</v>
       </c>
       <c r="E93">
-        <v>3121.320253321534</v>
+        <v>3121.320253321453</v>
       </c>
       <c r="F93">
-        <v>2559.665975462097</v>
+        <v>2559.665975462052</v>
       </c>
       <c r="G93">
-        <v>4.767112014362922</v>
+        <v>4.767112014362874</v>
       </c>
       <c r="H93">
-        <v>95.97536313551529</v>
+        <v>95.97536313551099</v>
       </c>
       <c r="I93">
-        <v>7.68759797266592E-08</v>
+        <v>7.687597972665465E-08</v>
       </c>
       <c r="J93">
-        <v>3.298903404944218E-08</v>
+        <v>3.298903404944199E-08</v>
       </c>
       <c r="K93">
-        <v>2.722674750084601E-05</v>
+        <v>2.722674750084621E-05</v>
       </c>
       <c r="L93">
-        <v>0.06620118000689749</v>
+        <v>0.06620118000689779</v>
       </c>
       <c r="M93">
-        <v>487.1699984572855</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.06612194484001664</v>
+      </c>
+      <c r="N93">
+        <v>487.1699984572911</v>
+      </c>
+      <c r="O93">
+        <v>7.923516688114399E-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>189.660333399043</v>
+        <v>189.6603333990432</v>
       </c>
       <c r="B94">
-        <v>4189048.259367118</v>
+        <v>4189048.259367234</v>
       </c>
       <c r="C94">
-        <v>5141.007037871621</v>
+        <v>5141.007037872056</v>
       </c>
       <c r="D94">
-        <v>14456.75010145061</v>
+        <v>14456.75010145071</v>
       </c>
       <c r="E94">
-        <v>2902.310259801524</v>
+        <v>2902.31025980135</v>
       </c>
       <c r="F94">
-        <v>2377.244143579715</v>
+        <v>2377.244143579593</v>
       </c>
       <c r="G94">
-        <v>4.75692720622945</v>
+        <v>4.756927206229451</v>
       </c>
       <c r="H94">
-        <v>107.8486613014355</v>
+        <v>107.8486613014281</v>
       </c>
       <c r="I94">
-        <v>9.265108572037124E-08</v>
+        <v>9.265108572036292E-08</v>
       </c>
       <c r="J94">
-        <v>3.4482674674865E-08</v>
+        <v>3.448267467486467E-08</v>
       </c>
       <c r="K94">
-        <v>2.621671952546337E-05</v>
+        <v>2.621671952546367E-05</v>
       </c>
       <c r="L94">
-        <v>0.06448023706893478</v>
+        <v>0.06448023706893523</v>
       </c>
       <c r="M94">
-        <v>469.1464658282158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.06439520855694207</v>
+      </c>
+      <c r="N94">
+        <v>469.1464658282231</v>
+      </c>
+      <c r="O94">
+        <v>8.502851199315101E-05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>191.1139856863073</v>
+        <v>191.1139856863074</v>
       </c>
       <c r="B95">
-        <v>4369095.336629977</v>
+        <v>4369095.336630031</v>
       </c>
       <c r="C95">
-        <v>5490.061606270435</v>
+        <v>5490.061606270639</v>
       </c>
       <c r="D95">
-        <v>14093.02482808094</v>
+        <v>14093.02482808098</v>
       </c>
       <c r="E95">
-        <v>2669.537042112867</v>
+        <v>2669.537042112797</v>
       </c>
       <c r="F95">
-        <v>2183.736323639276</v>
+        <v>2183.736323639228</v>
       </c>
       <c r="G95">
-        <v>4.755710275570642</v>
+        <v>4.755710275570617</v>
       </c>
       <c r="H95">
-        <v>123.6229508867391</v>
+        <v>123.6229508867353</v>
       </c>
       <c r="I95">
-        <v>1.144706120483651E-07</v>
+        <v>1.144706120483606E-07</v>
       </c>
       <c r="J95">
-        <v>3.612493374158311E-08</v>
+        <v>3.612493374158295E-08</v>
       </c>
       <c r="K95">
-        <v>2.51955174339735E-05</v>
+        <v>2.519551743397361E-05</v>
       </c>
       <c r="L95">
-        <v>0.06274789596086959</v>
+        <v>0.06274789596086974</v>
       </c>
       <c r="M95">
-        <v>450.6743168731319</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.06265664981902869</v>
+      </c>
+      <c r="N95">
+        <v>450.6743168731348</v>
+      </c>
+      <c r="O95">
+        <v>9.124614184105633E-05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>192.5676379735716</v>
+        <v>192.5676379735717</v>
       </c>
       <c r="B96">
-        <v>4554259.845397625</v>
+        <v>4554259.845397579</v>
       </c>
       <c r="C96">
-        <v>5871.573230353597</v>
+        <v>5871.57323035329</v>
       </c>
       <c r="D96">
-        <v>13701.12768731848</v>
+        <v>13701.12768731829</v>
       </c>
       <c r="E96">
-        <v>2420.007509442702</v>
+        <v>2420.007509442764</v>
       </c>
       <c r="F96">
-        <v>1976.762290848391</v>
+        <v>1976.76229084842</v>
       </c>
       <c r="G96">
-        <v>4.765258124995569</v>
+        <v>4.765258124995638</v>
       </c>
       <c r="H96">
-        <v>145.6369637809534</v>
+        <v>145.6369637809715</v>
       </c>
       <c r="I96">
-        <v>1.462625565983094E-07</v>
+        <v>1.462625565983338E-07</v>
       </c>
       <c r="J96">
-        <v>3.795553338115866E-08</v>
+        <v>3.795553338115946E-08</v>
       </c>
       <c r="K96">
-        <v>2.415356088371889E-05</v>
+        <v>2.415356088371838E-05</v>
       </c>
       <c r="L96">
-        <v>0.06098855812689125</v>
+        <v>0.0609885581268905</v>
       </c>
       <c r="M96">
-        <v>431.6446528765894</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.06089063480477707</v>
+      </c>
+      <c r="N96">
+        <v>431.6446528765778</v>
+      </c>
+      <c r="O96">
+        <v>9.792332211343456E-05</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>194.0212902608359</v>
       </c>
       <c r="B97">
-        <v>4744469.179744581</v>
+        <v>4744469.179744485</v>
       </c>
       <c r="C97">
-        <v>6293.624009422056</v>
+        <v>6293.624009421451</v>
       </c>
       <c r="D97">
-        <v>13272.05108347616</v>
+        <v>13272.0510834759</v>
       </c>
       <c r="E97">
-        <v>2148.770589039982</v>
+        <v>2148.770589040126</v>
       </c>
       <c r="F97">
-        <v>1752.395515475324</v>
+        <v>1752.395515475412</v>
       </c>
       <c r="G97">
-        <v>4.78819406513572</v>
+        <v>4.788194065135832</v>
       </c>
       <c r="H97">
-        <v>178.5668453627734</v>
+        <v>178.5668453628089</v>
       </c>
       <c r="I97">
-        <v>1.96107817263798E-07</v>
+        <v>1.961078172638484E-07</v>
       </c>
       <c r="J97">
-        <v>4.003625767262255E-08</v>
+        <v>4.003625767262372E-08</v>
       </c>
       <c r="K97">
-        <v>2.307600620850819E-05</v>
+        <v>2.307600620850751E-05</v>
       </c>
       <c r="L97">
-        <v>0.05917752682890106</v>
+        <v>0.0591775268289001</v>
       </c>
       <c r="M97">
-        <v>411.89148941352</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.05907242218691561</v>
+      </c>
+      <c r="N97">
+        <v>411.8914894135049</v>
+      </c>
+      <c r="O97">
+        <v>0.0001051046419844894</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>195.4749425481001</v>
+        <v>195.4749425481002</v>
       </c>
       <c r="B98">
-        <v>4939622.728302628</v>
+        <v>4939622.728302813</v>
       </c>
       <c r="C98">
-        <v>6770.565373765667</v>
+        <v>6770.565373766934</v>
       </c>
       <c r="D98">
-        <v>12790.45940543504</v>
+        <v>12790.45940543555</v>
       </c>
       <c r="E98">
-        <v>1846.989495786297</v>
+        <v>1846.989495785983</v>
       </c>
       <c r="F98">
-        <v>1503.612222847113</v>
+        <v>1503.612222846906</v>
       </c>
       <c r="G98">
-        <v>4.828711661275207</v>
+        <v>4.828711661275026</v>
       </c>
       <c r="H98">
-        <v>233.320513643398</v>
+        <v>233.320513643279</v>
       </c>
       <c r="I98">
-        <v>2.834670983957686E-07</v>
+        <v>2.834670983955912E-07</v>
       </c>
       <c r="J98">
-        <v>4.247262836704224E-08</v>
+        <v>4.247262836703986E-08</v>
       </c>
       <c r="K98">
-        <v>2.19377401007868E-05</v>
+        <v>2.193774010078802E-05</v>
       </c>
       <c r="L98">
-        <v>0.05727306710482463</v>
+        <v>0.05727306710482633</v>
       </c>
       <c r="M98">
-        <v>391.1377876408155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.05716021494303802</v>
+      </c>
+      <c r="N98">
+        <v>391.1377876408441</v>
+      </c>
+      <c r="O98">
+        <v>0.0001128521617883027</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>196.9285948353644</v>
+        <v>196.9285948353645</v>
       </c>
       <c r="B99">
-        <v>5139596.382912673</v>
+        <v>5139596.382912552</v>
       </c>
       <c r="C99">
-        <v>7331.621703281739</v>
+        <v>7331.621703280332</v>
       </c>
       <c r="D99">
-        <v>12226.166639224</v>
+        <v>12226.16663922294</v>
       </c>
       <c r="E99">
-        <v>1496.741503467141</v>
+        <v>1496.741503467332</v>
       </c>
       <c r="F99">
-        <v>1216.100596066649</v>
+        <v>1216.100596066745</v>
       </c>
       <c r="G99">
-        <v>4.894529994417705</v>
+        <v>4.894529994418062</v>
       </c>
       <c r="H99">
-        <v>342.6104042441762</v>
+        <v>342.6104042446048</v>
       </c>
       <c r="I99">
-        <v>4.689073869619237E-07</v>
+        <v>4.68907386962623E-07</v>
       </c>
       <c r="J99">
-        <v>4.547364499394527E-08</v>
+        <v>4.547364499395065E-08</v>
       </c>
       <c r="K99">
-        <v>2.068968806613182E-05</v>
+        <v>2.068968806612945E-05</v>
       </c>
       <c r="L99">
-        <v>0.05519539759068214</v>
+        <v>0.05519539759067885</v>
       </c>
       <c r="M99">
-        <v>368.8471724189372</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.05507413040554212</v>
+      </c>
+      <c r="N99">
+        <v>368.8471724188862</v>
+      </c>
+      <c r="O99">
+        <v>0.0001212671851367275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>198.3822471226286</v>
+        <v>198.3822471226287</v>
       </c>
       <c r="B100">
-        <v>5344248.338491926</v>
+        <v>5344248.338491672</v>
       </c>
       <c r="C100">
-        <v>8054.452507978065</v>
+        <v>8054.452507973204</v>
       </c>
       <c r="D100">
-        <v>11500.64414768373</v>
+        <v>11500.64414768089</v>
       </c>
       <c r="E100">
-        <v>1050.677332282173</v>
+        <v>1050.677332282979</v>
       </c>
       <c r="F100">
-        <v>851.8537636478753</v>
+        <v>851.8537636484097</v>
       </c>
       <c r="G100">
-        <v>5.004210646219203</v>
+        <v>5.004210646220113</v>
       </c>
       <c r="H100">
-        <v>669.8773104465805</v>
+        <v>669.8773104498258</v>
       </c>
       <c r="I100">
-        <v>1.069804128548836E-06</v>
+        <v>1.069804128554691E-06</v>
       </c>
       <c r="J100">
-        <v>4.958843965974564E-08</v>
+        <v>4.958843965976139E-08</v>
       </c>
       <c r="K100">
-        <v>1.920495175615279E-05</v>
+        <v>1.920495175614706E-05</v>
       </c>
       <c r="L100">
-        <v>0.0527460979317038</v>
+        <v>0.05274609793169585</v>
       </c>
       <c r="M100">
-        <v>343.6364819554342</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.05261552414879047</v>
+      </c>
+      <c r="N100">
+        <v>343.6364819553237</v>
+      </c>
+      <c r="O100">
+        <v>0.0001305737829053784</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>199.8358994098929</v>
+        <v>199.835899409893</v>
       </c>
       <c r="B101">
-        <v>5553424.26101899</v>
+        <v>5553424.266209312</v>
       </c>
       <c r="C101">
-        <v>9810.953671390964</v>
+        <v>9810.037503584676</v>
       </c>
       <c r="D101">
-        <v>9814.62971206701</v>
+        <v>9815.508491998669</v>
       </c>
       <c r="E101">
-        <v>1.115917470469715</v>
+        <v>1.66080228458188</v>
       </c>
       <c r="F101">
-        <v>0.9039076309404456</v>
+        <v>1.345270453708449</v>
       </c>
       <c r="G101">
-        <v>5.320645882378948</v>
+        <v>5.320475190363082</v>
       </c>
       <c r="H101">
-        <v>9386726.202566667</v>
+        <v>6259918.121611913</v>
       </c>
       <c r="I101">
-        <v>0.02153445901363875</v>
+        <v>0.01435839930480307</v>
       </c>
       <c r="J101">
-        <v>6.053138224410276E-08</v>
+        <v>6.052507039231194E-08</v>
       </c>
       <c r="K101">
-        <v>1.619327022436618E-05</v>
+        <v>1.619469870868349E-05</v>
       </c>
       <c r="L101">
-        <v>0.0479678741640137</v>
+        <v>0.04797005827548741</v>
       </c>
       <c r="M101">
-        <v>301.2524730149184</v>
+        <v>0.04782732291218342</v>
+      </c>
+      <c r="N101">
+        <v>301.2686918637826</v>
+      </c>
+      <c r="O101">
+        <v>0.000142735363303991</v>
       </c>
     </row>
   </sheetData>
